--- a/base_modificada.xlsx
+++ b/base_modificada.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcioheleno/Desktop/faculdade/pesquisa_operacional/Trabalho_Final_av3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{B511DBB8-539E-9945-B706-9D0E664DD468}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A77FEA-A59E-A847-8D39-F0C190BE8EA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10480" yWindow="4820" windowWidth="27840" windowHeight="17060" xr2:uid="{AC739AA8-03BC-FC4A-8190-A79BD54004A0}"/>
+    <workbookView xWindow="13120" yWindow="5420" windowWidth="27840" windowHeight="17060" activeTab="1" xr2:uid="{AC739AA8-03BC-FC4A-8190-A79BD54004A0}"/>
   </bookViews>
   <sheets>
     <sheet name="base_modificada" sheetId="1" r:id="rId1"/>
     <sheet name="Planilha3" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="213">
   <si>
     <t>Produto</t>
   </si>
@@ -655,6 +655,24 @@
   </si>
   <si>
     <t xml:space="preserve">Margem </t>
+  </si>
+  <si>
+    <t>Lucro</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>Q. Minimo</t>
+  </si>
+  <si>
+    <t>Q. Maximo</t>
+  </si>
+  <si>
+    <t>Valor de Revenda</t>
+  </si>
+  <si>
+    <t>Valor de Compra</t>
   </si>
 </sst>
 </file>
@@ -662,7 +680,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -753,7 +771,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -789,9 +807,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1109,8 +1133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{439AE936-D833-4743-8D9F-391964B79645}">
   <dimension ref="A1:GV8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:GT3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1740,807 +1764,807 @@
         <v>200</v>
       </c>
       <c r="B2" s="5">
-        <f>B3-B4</f>
+        <f t="shared" ref="B2:BM2" si="0">B3-B4</f>
         <v>360.58999999999992</v>
       </c>
       <c r="C2" s="5">
-        <f>C3-C4</f>
+        <f t="shared" si="0"/>
         <v>62.920000000000016</v>
       </c>
       <c r="D2" s="5">
-        <f>D3-D4</f>
+        <f t="shared" si="0"/>
         <v>49.470000000000027</v>
       </c>
       <c r="E2" s="5">
-        <f>E3-E4</f>
+        <f t="shared" si="0"/>
         <v>87.12</v>
       </c>
       <c r="F2" s="5">
-        <f>F3-F4</f>
+        <f t="shared" si="0"/>
         <v>781.65000000000009</v>
       </c>
       <c r="G2" s="5">
-        <f>G3-G4</f>
+        <f t="shared" si="0"/>
         <v>69.899999999999977</v>
       </c>
       <c r="H2" s="5">
-        <f>H3-H4</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="I2" s="5">
-        <f>I3-I4</f>
+        <f t="shared" si="0"/>
         <v>176.88</v>
       </c>
       <c r="J2" s="5">
-        <f>J3-J4</f>
+        <f t="shared" si="0"/>
         <v>85.759999999999991</v>
       </c>
       <c r="K2" s="5">
-        <f>K3-K4</f>
+        <f t="shared" si="0"/>
         <v>10.649999999999999</v>
       </c>
       <c r="L2" s="5">
-        <f>L3-L4</f>
+        <f t="shared" si="0"/>
         <v>101.29000000000002</v>
       </c>
       <c r="M2" s="5">
-        <f>M3-M4</f>
+        <f t="shared" si="0"/>
         <v>31.050000000000011</v>
       </c>
       <c r="N2" s="5">
-        <f>N3-N4</f>
+        <f t="shared" si="0"/>
         <v>29.590000000000003</v>
       </c>
       <c r="O2" s="5">
-        <f>O3-O4</f>
+        <f t="shared" si="0"/>
         <v>120.77999999999997</v>
       </c>
       <c r="P2" s="5">
-        <f>P3-P4</f>
+        <f t="shared" si="0"/>
         <v>43.059999999999945</v>
       </c>
       <c r="Q2" s="5">
-        <f>Q3-Q4</f>
+        <f t="shared" si="0"/>
         <v>340.94999999999982</v>
       </c>
       <c r="R2" s="5">
-        <f>R3-R4</f>
+        <f t="shared" si="0"/>
         <v>312.28999999999996</v>
       </c>
       <c r="S2" s="5">
-        <f>S3-S4</f>
+        <f t="shared" si="0"/>
         <v>122.12</v>
       </c>
       <c r="T2" s="5">
-        <f>T3-T4</f>
+        <f t="shared" si="0"/>
         <v>9.57</v>
       </c>
       <c r="U2" s="5">
-        <f>U3-U4</f>
+        <f t="shared" si="0"/>
         <v>28.939999999999998</v>
       </c>
       <c r="V2" s="5">
-        <f>V3-V4</f>
+        <f t="shared" si="0"/>
         <v>87.649999999999977</v>
       </c>
       <c r="W2" s="5">
-        <f>W3-W4</f>
+        <f t="shared" si="0"/>
         <v>357.67000000000007</v>
       </c>
       <c r="X2" s="5">
-        <f>X3-X4</f>
+        <f t="shared" si="0"/>
         <v>87.82</v>
       </c>
       <c r="Y2" s="5">
-        <f>Y3-Y4</f>
+        <f t="shared" si="0"/>
         <v>114.59000000000003</v>
       </c>
       <c r="Z2" s="5">
-        <f>Z3-Z4</f>
+        <f t="shared" si="0"/>
         <v>58.710000000000008</v>
       </c>
       <c r="AA2" s="5">
-        <f>AA3-AA4</f>
+        <f t="shared" si="0"/>
         <v>91.649999999999977</v>
       </c>
       <c r="AB2" s="5">
-        <f>AB3-AB4</f>
+        <f t="shared" si="0"/>
         <v>11.530000000000001</v>
       </c>
       <c r="AC2" s="5">
-        <f>AC3-AC4</f>
+        <f t="shared" si="0"/>
         <v>304.81999999999994</v>
       </c>
       <c r="AD2" s="5">
-        <f>AD3-AD4</f>
+        <f t="shared" si="0"/>
         <v>150.76</v>
       </c>
       <c r="AE2" s="5">
-        <f>AE3-AE4</f>
+        <f t="shared" si="0"/>
         <v>100.89999999999998</v>
       </c>
       <c r="AF2" s="5">
-        <f>AF3-AF4</f>
+        <f t="shared" si="0"/>
         <v>58.70999999999998</v>
       </c>
       <c r="AG2" s="5">
-        <f>AG3-AG4</f>
+        <f t="shared" si="0"/>
         <v>40.06</v>
       </c>
       <c r="AH2" s="5">
-        <f>AH3-AH4</f>
+        <f t="shared" si="0"/>
         <v>7.4699999999999989</v>
       </c>
       <c r="AI2" s="5">
-        <f>AI3-AI4</f>
+        <f t="shared" si="0"/>
         <v>62.70999999999998</v>
       </c>
       <c r="AJ2" s="5">
-        <f>AJ3-AJ4</f>
+        <f t="shared" si="0"/>
         <v>3.3200000000000003</v>
       </c>
       <c r="AK2" s="5">
-        <f>AK3-AK4</f>
+        <f t="shared" si="0"/>
         <v>248.76</v>
       </c>
       <c r="AL2" s="5">
-        <f>AL3-AL4</f>
+        <f t="shared" si="0"/>
         <v>398.90000000000009</v>
       </c>
       <c r="AM2" s="5">
-        <f>AM3-AM4</f>
+        <f t="shared" si="0"/>
         <v>13.11</v>
       </c>
       <c r="AN2" s="5">
-        <f>AN3-AN4</f>
+        <f t="shared" si="0"/>
         <v>68.12</v>
       </c>
       <c r="AO2" s="5">
-        <f>AO3-AO4</f>
+        <f t="shared" si="0"/>
         <v>37.470000000000027</v>
       </c>
       <c r="AP2" s="5">
-        <f>AP3-AP4</f>
+        <f t="shared" si="0"/>
         <v>63.819999999999993</v>
       </c>
       <c r="AQ2" s="5">
-        <f>AQ3-AQ4</f>
+        <f t="shared" si="0"/>
         <v>371.88000000000011</v>
       </c>
       <c r="AR2" s="5">
-        <f>AR3-AR4</f>
+        <f t="shared" si="0"/>
         <v>264.71000000000004</v>
       </c>
       <c r="AS2" s="5">
-        <f>AS3-AS4</f>
+        <f t="shared" si="0"/>
         <v>76.12</v>
       </c>
       <c r="AT2" s="5">
-        <f>AT3-AT4</f>
+        <f t="shared" si="0"/>
         <v>65.12</v>
       </c>
       <c r="AU2" s="5">
-        <f>AU3-AU4</f>
+        <f t="shared" si="0"/>
         <v>99.649999999999977</v>
       </c>
       <c r="AV2" s="5">
-        <f>AV3-AV4</f>
+        <f t="shared" si="0"/>
         <v>10.469999999999992</v>
       </c>
       <c r="AW2" s="5">
-        <f>AW3-AW4</f>
+        <f t="shared" si="0"/>
         <v>55.53</v>
       </c>
       <c r="AX2" s="5">
-        <f>AX3-AX4</f>
+        <f t="shared" si="0"/>
         <v>65.82000000000005</v>
       </c>
       <c r="AY2" s="5">
-        <f>AY3-AY4</f>
+        <f t="shared" si="0"/>
         <v>8.57</v>
       </c>
       <c r="AZ2" s="5">
-        <f>AZ3-AZ4</f>
+        <f t="shared" si="0"/>
         <v>4.5900000000000034</v>
       </c>
       <c r="BA2" s="5">
-        <f>BA3-BA4</f>
+        <f t="shared" si="0"/>
         <v>1336.1800000000003</v>
       </c>
       <c r="BB2" s="5">
-        <f>BB3-BB4</f>
+        <f t="shared" si="0"/>
         <v>34.409999999999968</v>
       </c>
       <c r="BC2" s="5">
-        <f>BC3-BC4</f>
+        <f t="shared" si="0"/>
         <v>82.409999999999968</v>
       </c>
       <c r="BD2" s="5">
-        <f>BD3-BD4</f>
+        <f t="shared" si="0"/>
         <v>20.370000000000005</v>
       </c>
       <c r="BE2" s="5">
-        <f>BE3-BE4</f>
+        <f t="shared" si="0"/>
         <v>100.58999999999997</v>
       </c>
       <c r="BF2" s="5">
-        <f>BF3-BF4</f>
+        <f t="shared" si="0"/>
         <v>52.819999999999993</v>
       </c>
       <c r="BG2" s="5">
-        <f>BG3-BG4</f>
+        <f t="shared" si="0"/>
         <v>29.410000000000025</v>
       </c>
       <c r="BH2" s="5">
-        <f>BH3-BH4</f>
+        <f t="shared" si="0"/>
         <v>20.879999999999995</v>
       </c>
       <c r="BI2" s="5">
-        <f>BI3-BI4</f>
+        <f t="shared" si="0"/>
         <v>7.25</v>
       </c>
       <c r="BJ2" s="5">
-        <f>BJ3-BJ4</f>
+        <f t="shared" si="0"/>
         <v>344.27999999999975</v>
       </c>
       <c r="BK2" s="5">
-        <f>BK3-BK4</f>
+        <f t="shared" si="0"/>
         <v>165.40999999999997</v>
       </c>
       <c r="BL2" s="5">
-        <f>BL3-BL4</f>
+        <f t="shared" si="0"/>
         <v>57.120000000000005</v>
       </c>
       <c r="BM2" s="5">
-        <f>BM3-BM4</f>
+        <f t="shared" si="0"/>
         <v>232.76</v>
       </c>
       <c r="BN2" s="5">
-        <f>BN3-BN4</f>
+        <f t="shared" ref="BN2:DY2" si="1">BN3-BN4</f>
         <v>98.410000000000025</v>
       </c>
       <c r="BO2" s="5">
-        <f>BO3-BO4</f>
+        <f t="shared" si="1"/>
         <v>7.9399999999999977</v>
       </c>
       <c r="BP2" s="5">
-        <f>BP3-BP4</f>
+        <f t="shared" si="1"/>
         <v>47.899999999999977</v>
       </c>
       <c r="BQ2" s="5">
-        <f>BQ3-BQ4</f>
+        <f t="shared" si="1"/>
         <v>339.58999999999992</v>
       </c>
       <c r="BR2" s="5">
-        <f>BR3-BR4</f>
+        <f t="shared" si="1"/>
         <v>41.29000000000002</v>
       </c>
       <c r="BS2" s="5">
-        <f>BS3-BS4</f>
+        <f t="shared" si="1"/>
         <v>510.94000000000005</v>
       </c>
       <c r="BT2" s="5">
-        <f>BT3-BT4</f>
+        <f t="shared" si="1"/>
         <v>69.410000000000025</v>
       </c>
       <c r="BU2" s="5">
-        <f>BU3-BU4</f>
+        <f t="shared" si="1"/>
         <v>15.159999999999997</v>
       </c>
       <c r="BV2" s="5">
-        <f>BV3-BV4</f>
+        <f t="shared" si="1"/>
         <v>178.71000000000004</v>
       </c>
       <c r="BW2" s="5">
-        <f>BW3-BW4</f>
+        <f t="shared" si="1"/>
         <v>53.899999999999977</v>
       </c>
       <c r="BX2" s="5">
-        <f>BX3-BX4</f>
+        <f t="shared" si="1"/>
         <v>43.240000000000009</v>
       </c>
       <c r="BY2" s="5">
-        <f>BY3-BY4</f>
+        <f t="shared" si="1"/>
         <v>135.47000000000003</v>
       </c>
       <c r="BZ2" s="5">
-        <f>BZ3-BZ4</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="CA2" s="5">
-        <f>CA3-CA4</f>
+        <f t="shared" si="1"/>
         <v>3.59</v>
       </c>
       <c r="CB2" s="5">
-        <f>CB3-CB4</f>
+        <f t="shared" si="1"/>
         <v>32.370000000000005</v>
       </c>
       <c r="CC2" s="5">
-        <f>CC3-CC4</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="CD2" s="5">
-        <f>CD3-CD4</f>
+        <f t="shared" si="1"/>
         <v>62.06</v>
       </c>
       <c r="CE2" s="5">
-        <f>CE3-CE4</f>
+        <f t="shared" si="1"/>
         <v>159.71000000000004</v>
       </c>
       <c r="CF2" s="5">
-        <f>CF3-CF4</f>
+        <f t="shared" si="1"/>
         <v>55.759999999999991</v>
       </c>
       <c r="CG2" s="5">
-        <f>CG3-CG4</f>
+        <f t="shared" si="1"/>
         <v>65.88</v>
       </c>
       <c r="CH2" s="5">
-        <f>CH3-CH4</f>
+        <f t="shared" si="1"/>
         <v>49.70999999999998</v>
       </c>
       <c r="CI2" s="5">
-        <f>CI3-CI4</f>
+        <f t="shared" si="1"/>
         <v>502.73999999999978</v>
       </c>
       <c r="CJ2" s="5">
-        <f>CJ3-CJ4</f>
+        <f t="shared" si="1"/>
         <v>11.409999999999997</v>
       </c>
       <c r="CK2" s="5">
-        <f>CK3-CK4</f>
+        <f t="shared" si="1"/>
         <v>143.24</v>
       </c>
       <c r="CL2" s="5">
-        <f>CL3-CL4</f>
+        <f t="shared" si="1"/>
         <v>82</v>
       </c>
       <c r="CM2" s="5">
-        <f>CM3-CM4</f>
+        <f t="shared" si="1"/>
         <v>246.76</v>
       </c>
       <c r="CN2" s="5">
-        <f>CN3-CN4</f>
+        <f t="shared" si="1"/>
         <v>148.88</v>
       </c>
       <c r="CO2" s="5">
-        <f>CO3-CO4</f>
+        <f t="shared" si="1"/>
         <v>14.18</v>
       </c>
       <c r="CP2" s="5">
-        <f>CP3-CP4</f>
+        <f t="shared" si="1"/>
         <v>21.879999999999995</v>
       </c>
       <c r="CQ2" s="5">
-        <f>CQ3-CQ4</f>
+        <f t="shared" si="1"/>
         <v>6.1099999999999994</v>
       </c>
       <c r="CR2" s="5">
-        <f>CR3-CR4</f>
+        <f t="shared" si="1"/>
         <v>129</v>
       </c>
       <c r="CS2" s="5">
-        <f>CS3-CS4</f>
+        <f t="shared" si="1"/>
         <v>32.900000000000006</v>
       </c>
       <c r="CT2" s="5">
-        <f>CT3-CT4</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="CU2" s="5">
-        <f>CU3-CU4</f>
+        <f t="shared" si="1"/>
         <v>13.820000000000007</v>
       </c>
       <c r="CV2" s="5">
-        <f>CV3-CV4</f>
+        <f t="shared" si="1"/>
         <v>57.370000000000005</v>
       </c>
       <c r="CW2" s="5">
-        <f>CW3-CW4</f>
+        <f t="shared" si="1"/>
         <v>3.8599999999999994</v>
       </c>
       <c r="CX2" s="5">
-        <f>CX3-CX4</f>
+        <f t="shared" si="1"/>
         <v>9.8999999999999986</v>
       </c>
       <c r="CY2" s="5">
-        <f>CY3-CY4</f>
+        <f t="shared" si="1"/>
         <v>54.120000000000005</v>
       </c>
       <c r="CZ2" s="5">
-        <f>CZ3-CZ4</f>
+        <f t="shared" si="1"/>
         <v>140</v>
       </c>
       <c r="DA2" s="5">
-        <f>DA3-DA4</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="DB2" s="5">
-        <f>DB3-DB4</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="DC2" s="5">
-        <f>DC3-DC4</f>
+        <f t="shared" si="1"/>
         <v>26.949999999999989</v>
       </c>
       <c r="DD2" s="5">
-        <f>DD3-DD4</f>
+        <f t="shared" si="1"/>
         <v>79.13</v>
       </c>
       <c r="DE2" s="5">
-        <f>DE3-DE4</f>
+        <f t="shared" si="1"/>
         <v>20.299999999999997</v>
       </c>
       <c r="DF2" s="5">
-        <f>DF3-DF4</f>
+        <f t="shared" si="1"/>
         <v>76.94</v>
       </c>
       <c r="DG2" s="5">
-        <f>DG3-DG4</f>
+        <f t="shared" si="1"/>
         <v>97.460000000000036</v>
       </c>
       <c r="DH2" s="5">
-        <f>DH3-DH4</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="DI2" s="5">
-        <f>DI3-DI4</f>
+        <f t="shared" si="1"/>
         <v>83.78</v>
       </c>
       <c r="DJ2" s="5">
-        <f>DJ3-DJ4</f>
+        <f t="shared" si="1"/>
         <v>9.1800000000000068</v>
       </c>
       <c r="DK2" s="5">
-        <f>DK3-DK4</f>
+        <f t="shared" si="1"/>
         <v>25.890000000000015</v>
       </c>
       <c r="DL2" s="5">
-        <f>DL3-DL4</f>
+        <f t="shared" si="1"/>
         <v>125.39999999999999</v>
       </c>
       <c r="DM2" s="5">
-        <f>DM3-DM4</f>
+        <f t="shared" si="1"/>
         <v>313</v>
       </c>
       <c r="DN2" s="5">
-        <f>DN3-DN4</f>
+        <f t="shared" si="1"/>
         <v>36.319999999999993</v>
       </c>
       <c r="DO2" s="5">
-        <f>DO3-DO4</f>
+        <f t="shared" si="1"/>
         <v>10.39</v>
       </c>
       <c r="DP2" s="5">
-        <f>DP3-DP4</f>
+        <f t="shared" si="1"/>
         <v>5.1199999999999992</v>
       </c>
       <c r="DQ2" s="5">
-        <f>DQ3-DQ4</f>
+        <f t="shared" si="1"/>
         <v>9.9799999999999898</v>
       </c>
       <c r="DR2" s="5">
-        <f>DR3-DR4</f>
+        <f t="shared" si="1"/>
         <v>21.75</v>
       </c>
       <c r="DS2" s="5">
-        <f>DS3-DS4</f>
+        <f t="shared" si="1"/>
         <v>12.14</v>
       </c>
       <c r="DT2" s="5">
-        <f>DT3-DT4</f>
+        <f t="shared" si="1"/>
         <v>62.34</v>
       </c>
       <c r="DU2" s="5">
-        <f>DU3-DU4</f>
+        <f t="shared" si="1"/>
         <v>56.680000000000007</v>
       </c>
       <c r="DV2" s="5">
-        <f>DV3-DV4</f>
+        <f t="shared" si="1"/>
         <v>100.9</v>
       </c>
       <c r="DW2" s="5">
-        <f>DW3-DW4</f>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="DX2" s="5">
-        <f>DX3-DX4</f>
+        <f t="shared" si="1"/>
         <v>10.899999999999999</v>
       </c>
       <c r="DY2" s="5">
-        <f>DY3-DY4</f>
+        <f t="shared" si="1"/>
         <v>12.900000000000006</v>
       </c>
       <c r="DZ2" s="5">
-        <f>DZ3-DZ4</f>
+        <f t="shared" ref="DZ2:GK2" si="2">DZ3-DZ4</f>
         <v>100.06</v>
       </c>
       <c r="EA2" s="5">
-        <f>EA3-EA4</f>
+        <f t="shared" si="2"/>
         <v>59.70999999999998</v>
       </c>
       <c r="EB2" s="5">
-        <f>EB3-EB4</f>
+        <f t="shared" si="2"/>
         <v>30.840000000000003</v>
       </c>
       <c r="EC2" s="5">
-        <f>EC3-EC4</f>
+        <f t="shared" si="2"/>
         <v>37.259999999999991</v>
       </c>
       <c r="ED2" s="5">
-        <f>ED3-ED4</f>
+        <f t="shared" si="2"/>
         <v>40.470000000000027</v>
       </c>
       <c r="EE2" s="5">
-        <f>EE3-EE4</f>
+        <f t="shared" si="2"/>
         <v>32.050000000000011</v>
       </c>
       <c r="EF2" s="5">
-        <f>EF3-EF4</f>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="EG2" s="5">
-        <f>EG3-EG4</f>
+        <f t="shared" si="2"/>
         <v>7.7600000000000051</v>
       </c>
       <c r="EH2" s="5">
-        <f>EH3-EH4</f>
+        <f t="shared" si="2"/>
         <v>59.839999999999975</v>
       </c>
       <c r="EI2" s="5">
-        <f>EI3-EI4</f>
+        <f t="shared" si="2"/>
         <v>42.06</v>
       </c>
       <c r="EJ2" s="5">
-        <f>EJ3-EJ4</f>
+        <f t="shared" si="2"/>
         <v>117.29000000000002</v>
       </c>
       <c r="EK2" s="5">
-        <f>EK3-EK4</f>
+        <f t="shared" si="2"/>
         <v>155</v>
       </c>
       <c r="EL2" s="5">
-        <f>EL3-EL4</f>
+        <f t="shared" si="2"/>
         <v>67.550000000000011</v>
       </c>
       <c r="EM2" s="5">
-        <f>EM3-EM4</f>
+        <f t="shared" si="2"/>
         <v>10.57</v>
       </c>
       <c r="EN2" s="5">
-        <f>EN3-EN4</f>
+        <f t="shared" si="2"/>
         <v>8.5300000000000011</v>
       </c>
       <c r="EO2" s="5">
-        <f>EO3-EO4</f>
+        <f t="shared" si="2"/>
         <v>22.650000000000006</v>
       </c>
       <c r="EP2" s="5">
-        <f>EP3-EP4</f>
+        <f t="shared" si="2"/>
         <v>222.89999999999998</v>
       </c>
       <c r="EQ2" s="5">
-        <f>EQ3-EQ4</f>
+        <f t="shared" si="2"/>
         <v>19.240000000000009</v>
       </c>
       <c r="ER2" s="5">
-        <f>ER3-ER4</f>
+        <f t="shared" si="2"/>
         <v>135</v>
       </c>
       <c r="ES2" s="5">
-        <f>ES3-ES4</f>
+        <f t="shared" si="2"/>
         <v>13.899999999999999</v>
       </c>
       <c r="ET2" s="5">
-        <f>ET3-ET4</f>
+        <f t="shared" si="2"/>
         <v>19.53</v>
       </c>
       <c r="EU2" s="5">
-        <f>EU3-EU4</f>
+        <f t="shared" si="2"/>
         <v>14.239999999999995</v>
       </c>
       <c r="EV2" s="5">
-        <f>EV3-EV4</f>
+        <f t="shared" si="2"/>
         <v>35.409999999999997</v>
       </c>
       <c r="EW2" s="5">
-        <f>EW3-EW4</f>
+        <f t="shared" si="2"/>
         <v>8.8999999999999986</v>
       </c>
       <c r="EX2" s="5">
-        <f>EX3-EX4</f>
+        <f t="shared" si="2"/>
         <v>194.88</v>
       </c>
       <c r="EY2" s="5">
-        <f>EY3-EY4</f>
+        <f t="shared" si="2"/>
         <v>23.710000000000036</v>
       </c>
       <c r="EZ2" s="5">
-        <f>EZ3-EZ4</f>
+        <f t="shared" si="2"/>
         <v>5.4699999999999989</v>
       </c>
       <c r="FA2" s="5">
-        <f>FA3-FA4</f>
+        <f t="shared" si="2"/>
         <v>95.470000000000027</v>
       </c>
       <c r="FB2" s="5">
-        <f>FB3-FB4</f>
+        <f t="shared" si="2"/>
         <v>275.47000000000003</v>
       </c>
       <c r="FC2" s="5">
-        <f>FC3-FC4</f>
+        <f t="shared" si="2"/>
         <v>169.11999999999989</v>
       </c>
       <c r="FD2" s="5">
-        <f>FD3-FD4</f>
+        <f t="shared" si="2"/>
         <v>51.470000000000027</v>
       </c>
       <c r="FE2" s="5">
-        <f>FE3-FE4</f>
+        <f t="shared" si="2"/>
         <v>100.77999999999997</v>
       </c>
       <c r="FF2" s="5">
-        <f>FF3-FF4</f>
+        <f t="shared" si="2"/>
         <v>120.35000000000002</v>
       </c>
       <c r="FG2" s="5">
-        <f>FG3-FG4</f>
+        <f t="shared" si="2"/>
         <v>253</v>
       </c>
       <c r="FH2" s="5">
-        <f>FH3-FH4</f>
+        <f t="shared" si="2"/>
         <v>3517.6499999999978</v>
       </c>
       <c r="FI2" s="5">
-        <f>FI3-FI4</f>
+        <f t="shared" si="2"/>
         <v>4154.8600000000006</v>
       </c>
       <c r="FJ2" s="5">
-        <f>FJ3-FJ4</f>
+        <f t="shared" si="2"/>
         <v>99.220000000000027</v>
       </c>
       <c r="FK2" s="5">
-        <f>FK3-FK4</f>
+        <f t="shared" si="2"/>
         <v>157.65000000000009</v>
       </c>
       <c r="FL2" s="5">
-        <f>FL3-FL4</f>
+        <f t="shared" si="2"/>
         <v>100.18</v>
       </c>
       <c r="FM2" s="5">
-        <f>FM3-FM4</f>
+        <f t="shared" si="2"/>
         <v>93.580000000000013</v>
       </c>
       <c r="FN2" s="5">
-        <f>FN3-FN4</f>
+        <f t="shared" si="2"/>
         <v>46.349999999999994</v>
       </c>
       <c r="FO2" s="5">
-        <f>FO3-FO4</f>
+        <f t="shared" si="2"/>
         <v>50.589999999999975</v>
       </c>
       <c r="FP2" s="5">
-        <f>FP3-FP4</f>
+        <f t="shared" si="2"/>
         <v>201.88000000000011</v>
       </c>
       <c r="FQ2" s="5">
-        <f>FQ3-FQ4</f>
+        <f t="shared" si="2"/>
         <v>5.4000000000000057</v>
       </c>
       <c r="FR2" s="5">
-        <f>FR3-FR4</f>
+        <f t="shared" si="2"/>
         <v>850.15999999999985</v>
       </c>
       <c r="FS2" s="5">
-        <f>FS3-FS4</f>
+        <f t="shared" si="2"/>
         <v>379.28999999999996</v>
       </c>
       <c r="FT2" s="5">
-        <f>FT3-FT4</f>
+        <f t="shared" si="2"/>
         <v>281.34999999999991</v>
       </c>
       <c r="FU2" s="5">
-        <f>FU3-FU4</f>
+        <f t="shared" si="2"/>
         <v>390.17999999999984</v>
       </c>
       <c r="FV2" s="5">
-        <f>FV3-FV4</f>
+        <f t="shared" si="2"/>
         <v>1497.2199999999993</v>
       </c>
       <c r="FW2" s="5">
-        <f>FW3-FW4</f>
+        <f t="shared" si="2"/>
         <v>828.18000000000006</v>
       </c>
       <c r="FX2" s="5">
-        <f>FX3-FX4</f>
+        <f t="shared" si="2"/>
         <v>89.77</v>
       </c>
       <c r="FY2" s="5">
-        <f>FY3-FY4</f>
+        <f t="shared" si="2"/>
         <v>19.819999999999993</v>
       </c>
       <c r="FZ2" s="5">
-        <f>FZ3-FZ4</f>
+        <f t="shared" si="2"/>
         <v>78.899999999999977</v>
       </c>
       <c r="GA2" s="5">
-        <f>GA3-GA4</f>
+        <f t="shared" si="2"/>
         <v>1041.5900000000001</v>
       </c>
       <c r="GB2" s="5">
-        <f>GB3-GB4</f>
+        <f t="shared" si="2"/>
         <v>64.62</v>
       </c>
       <c r="GC2" s="5">
-        <f>GC3-GC4</f>
+        <f t="shared" si="2"/>
         <v>35.579999999999984</v>
       </c>
       <c r="GD2" s="5">
-        <f>GD3-GD4</f>
+        <f t="shared" si="2"/>
         <v>310.88000000000011</v>
       </c>
       <c r="GE2" s="5">
-        <f>GE3-GE4</f>
+        <f t="shared" si="2"/>
         <v>476.89999999999964</v>
       </c>
       <c r="GF2" s="5">
-        <f>GF3-GF4</f>
+        <f t="shared" si="2"/>
         <v>547.76000000000022</v>
       </c>
       <c r="GG2" s="5">
-        <f>GG3-GG4</f>
+        <f t="shared" si="2"/>
         <v>763.09000000000015</v>
       </c>
       <c r="GH2" s="5">
-        <f>GH3-GH4</f>
+        <f t="shared" si="2"/>
         <v>376.75</v>
       </c>
       <c r="GI2" s="5">
-        <f>GI3-GI4</f>
+        <f t="shared" si="2"/>
         <v>699.98</v>
       </c>
       <c r="GJ2" s="5">
-        <f>GJ3-GJ4</f>
+        <f t="shared" si="2"/>
         <v>1342.4500000000007</v>
       </c>
       <c r="GK2" s="5">
-        <f>GK3-GK4</f>
+        <f t="shared" si="2"/>
         <v>13.11</v>
       </c>
       <c r="GL2" s="5">
-        <f>GL3-GL4</f>
+        <f t="shared" ref="GL2:GT2" si="3">GL3-GL4</f>
         <v>6.91</v>
       </c>
       <c r="GM2" s="5">
-        <f>GM3-GM4</f>
+        <f t="shared" si="3"/>
         <v>3.509999999999998</v>
       </c>
       <c r="GN2" s="5">
-        <f>GN3-GN4</f>
+        <f t="shared" si="3"/>
         <v>15.650000000000034</v>
       </c>
       <c r="GO2" s="5">
-        <f>GO3-GO4</f>
+        <f t="shared" si="3"/>
         <v>6.1400000000000006</v>
       </c>
       <c r="GP2" s="5">
-        <f>GP3-GP4</f>
+        <f t="shared" si="3"/>
         <v>7.7099999999999937</v>
       </c>
       <c r="GQ2" s="5">
-        <f>GQ3-GQ4</f>
+        <f t="shared" si="3"/>
         <v>55.33</v>
       </c>
       <c r="GR2" s="5">
-        <f>GR3-GR4</f>
+        <f t="shared" si="3"/>
         <v>32.5</v>
       </c>
       <c r="GS2" s="5">
-        <f>GS3-GS4</f>
+        <f t="shared" si="3"/>
         <v>4.2600000000000051</v>
       </c>
       <c r="GT2" s="5">
-        <f>GT3-GT4</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -4990,816 +5014,816 @@
         <v>203</v>
       </c>
       <c r="B7">
-        <f ca="1">RAND()</f>
-        <v>0.5078390820989146</v>
+        <f t="shared" ref="B7:H7" ca="1" si="4">RAND()</f>
+        <v>0.27781322275277798</v>
       </c>
       <c r="C7">
-        <f ca="1">RAND()</f>
-        <v>0.94953228010431878</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>6.3790153346688916E-2</v>
       </c>
       <c r="D7">
-        <f ca="1">RAND()</f>
-        <v>0.39491697213371224</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.81985997552745904</v>
       </c>
       <c r="E7">
-        <f ca="1">RAND()</f>
-        <v>0.51678549515329297</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.43789450625851667</v>
       </c>
       <c r="F7">
-        <f ca="1">RAND()</f>
-        <v>0.1307693211478298</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.94463364201669353</v>
       </c>
       <c r="G7">
-        <f ca="1">RAND()</f>
-        <v>0.96867526071176724</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.88679819823750727</v>
       </c>
       <c r="H7">
-        <f ca="1">RAND()</f>
-        <v>0.12521688931762065</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.73233605979541139</v>
       </c>
       <c r="I7">
-        <f t="shared" ref="I7:BT7" ca="1" si="0">RAND()</f>
-        <v>0.66150019027445239</v>
+        <f t="shared" ref="I7:BT7" ca="1" si="5">RAND()</f>
+        <v>0.53989061499835611</v>
       </c>
       <c r="J7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.69166637008406895</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.16513507842114461</v>
       </c>
       <c r="K7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.79780562345514483</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.99575501296787683</v>
       </c>
       <c r="L7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.45567646903162584</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.77138767116027096</v>
       </c>
       <c r="M7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.79565557001040677</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.39879026898287162</v>
       </c>
       <c r="N7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.13748554290974835</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.21588344621539679</v>
       </c>
       <c r="O7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.80110393556836423</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.96193084066263934</v>
       </c>
       <c r="P7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.84006696161566918</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>2.1868626526664436E-2</v>
       </c>
       <c r="Q7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.65210899831643543</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.31227679022359711</v>
       </c>
       <c r="R7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.23856339050110287</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>7.6257969031819917E-3</v>
       </c>
       <c r="S7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.97310021209095598</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.23543651238831864</v>
       </c>
       <c r="T7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.17485105027352732</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.50107551586635768</v>
       </c>
       <c r="U7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.8588763858147731</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.27471004193078141</v>
       </c>
       <c r="V7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.43081711079156426</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.5653220105267841</v>
       </c>
       <c r="W7">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.1206041223388805E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.57851828445488063</v>
       </c>
       <c r="X7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.97810200020000093</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.58373010528582903</v>
       </c>
       <c r="Y7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.86196083756815722</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.78911589251218572</v>
       </c>
       <c r="Z7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.22183976102404346</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.65092383759135031</v>
       </c>
       <c r="AA7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.47521690851865772</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.59515513292093714</v>
       </c>
       <c r="AB7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.4390853463565394</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.39474881076991031</v>
       </c>
       <c r="AC7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.32909960616040246</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.19261834996437222</v>
       </c>
       <c r="AD7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.27180780940372307</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.78907604457391833</v>
       </c>
       <c r="AE7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.94614491370839182</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.45553171450378582</v>
       </c>
       <c r="AF7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.2134207167341684</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.39529163404816459</v>
       </c>
       <c r="AG7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.56061026824433968</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.52153224007042898</v>
       </c>
       <c r="AH7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.92834790770116149</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.87544496529549132</v>
       </c>
       <c r="AI7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.42113827957108907</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.44697953733974205</v>
       </c>
       <c r="AJ7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.40451340635156308</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.20263174844288745</v>
       </c>
       <c r="AK7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.39257927424723882</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.78655712251812349</v>
       </c>
       <c r="AL7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.11895773341840243</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.96688755637998924</v>
       </c>
       <c r="AM7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.80624932310565212</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.76041946731297039</v>
       </c>
       <c r="AN7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.91669381346510759</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.17980504376073769</v>
       </c>
       <c r="AO7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.20343102328282148</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.51037132168875132</v>
       </c>
       <c r="AP7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.34770487573955489</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.31183425015522215</v>
       </c>
       <c r="AQ7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.78763891742748793</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.55820626962618702</v>
       </c>
       <c r="AR7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.1278856844118843</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.21341474378624314</v>
       </c>
       <c r="AS7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.22202401018226925</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.29446301285441967</v>
       </c>
       <c r="AT7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.59549658301436204</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.66010773091490682</v>
       </c>
       <c r="AU7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.28522357684887267</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.49560004267929914</v>
       </c>
       <c r="AV7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.35024165510968364</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.44598221467650589</v>
       </c>
       <c r="AW7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.49162918325992921</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.83685352899320731</v>
       </c>
       <c r="AX7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.68900679133889964</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.76455266189042148</v>
       </c>
       <c r="AY7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.45100125033371097</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.78836382786371928</v>
       </c>
       <c r="AZ7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.45074405764543679</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.12490347761046061</v>
       </c>
       <c r="BA7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.39918148188714886</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.24313882284272015</v>
       </c>
       <c r="BB7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.85915480221942497</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.15741054272480137</v>
       </c>
       <c r="BC7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.93041083724030726</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.74684447599983406</v>
       </c>
       <c r="BD7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.32688379998535322</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.50770037866291218</v>
       </c>
       <c r="BE7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.88609079762870491</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.13745023405680823</v>
       </c>
       <c r="BF7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.64668830787325127</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.90308091017547021</v>
       </c>
       <c r="BG7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.92867647864917668</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.99863353193963256</v>
       </c>
       <c r="BH7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.83474175277909302</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>4.8680901372498364E-2</v>
       </c>
       <c r="BI7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.10998115732016689</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.89647632447289161</v>
       </c>
       <c r="BJ7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.38391340105002791</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.29751308035975743</v>
       </c>
       <c r="BK7">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.6259278278996496E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.27111266489060748</v>
       </c>
       <c r="BL7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.72074996422473359</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.5333657541525556</v>
       </c>
       <c r="BM7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.79276622682362696</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.85330077749951794</v>
       </c>
       <c r="BN7">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.2331296139218062E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.22605114799219228</v>
       </c>
       <c r="BO7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.7278590387085595</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.7047312989104606</v>
       </c>
       <c r="BP7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.83956303919044839</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.11674230734345503</v>
       </c>
       <c r="BQ7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.26015705289208169</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.52850021087800947</v>
       </c>
       <c r="BR7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.41333993066036923</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.31275173887434216</v>
       </c>
       <c r="BS7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.76528268732082971</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.60781014563512969</v>
       </c>
       <c r="BT7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.11788432605810195</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.15757284900542656</v>
       </c>
       <c r="BU7">
-        <f t="shared" ref="BU7:EF7" ca="1" si="1">RAND()</f>
-        <v>0.51568104379038027</v>
+        <f t="shared" ref="BU7:EF7" ca="1" si="6">RAND()</f>
+        <v>5.5838248396244405E-2</v>
       </c>
       <c r="BV7">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.12494599010867047</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>4.0761784619126273E-2</v>
       </c>
       <c r="BW7">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.70549795522016112</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.73086616258409776</v>
       </c>
       <c r="BX7">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.42030539904942532</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.19631256842152911</v>
       </c>
       <c r="BY7">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.41279779794627203</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.25630378125330544</v>
       </c>
       <c r="BZ7">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.53457898543817906</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.50708515287879341</v>
       </c>
       <c r="CA7">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.41466864823724858</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.76022760505120313</v>
       </c>
       <c r="CB7">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.96354518203845108</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.74055475234937029</v>
       </c>
       <c r="CC7">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.63653846309376982</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.96935359475545391</v>
       </c>
       <c r="CD7">
-        <f t="shared" ca="1" si="1"/>
-        <v>9.1469553820567095E-2</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.89768150196763374</v>
       </c>
       <c r="CE7">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.59784311125882261</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.80714953174935822</v>
       </c>
       <c r="CF7">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.50787593965557487</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2.515683750983877E-3</v>
       </c>
       <c r="CG7">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.72872257523718265</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>9.816238944707889E-2</v>
       </c>
       <c r="CH7">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.40253580471390638</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.33455287734327277</v>
       </c>
       <c r="CI7">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.95666444885652746</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.72164936324958451</v>
       </c>
       <c r="CJ7">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.47672600549843447</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.45476244099751317</v>
       </c>
       <c r="CK7">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.62508703481977257</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.27094496216426556</v>
       </c>
       <c r="CL7">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.2997483218512351E-2</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.58958483098426451</v>
       </c>
       <c r="CM7">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.88632086577243896</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.83956650407670719</v>
       </c>
       <c r="CN7">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.74438419469756723</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.38456562972707542</v>
       </c>
       <c r="CO7">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.39569500132333568</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.19865189987381426</v>
       </c>
       <c r="CP7">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.3448780209560488</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.84669030740622442</v>
       </c>
       <c r="CQ7">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.36726867492615478</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.60861992486011085</v>
       </c>
       <c r="CR7">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.94494060735112628</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.48989536436491765</v>
       </c>
       <c r="CS7">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.11175661460975106</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.70486452892229456</v>
       </c>
       <c r="CT7">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.36588723615925878</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.57504398534779844</v>
       </c>
       <c r="CU7">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.94915829848594024</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.21322711376783932</v>
       </c>
       <c r="CV7">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.67336383548533407</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.41798238970881074</v>
       </c>
       <c r="CW7">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.4437040457125706</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.38892274212878419</v>
       </c>
       <c r="CX7">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.44913041077606053</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.43979634883251828</v>
       </c>
       <c r="CY7">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.89009717064810912</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.52362457626962233</v>
       </c>
       <c r="CZ7">
-        <f t="shared" ca="1" si="1"/>
-        <v>9.4361558219368424E-2</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.830347194819406</v>
       </c>
       <c r="DA7">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.79393544270258709</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.82871314410168839</v>
       </c>
       <c r="DB7">
-        <f t="shared" ca="1" si="1"/>
-        <v>6.8987034769433686E-2</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.64407311048250537</v>
       </c>
       <c r="DC7">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.5678747626243692</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.16106177543188527</v>
       </c>
       <c r="DD7">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.97512646862609809</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.5411320892568473</v>
       </c>
       <c r="DE7">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.49734350459330168</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.78808143963055743</v>
       </c>
       <c r="DF7">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.82268499901361447</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>9.0745221035728241E-2</v>
       </c>
       <c r="DG7">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.35692870355109518</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.33463119499312111</v>
       </c>
       <c r="DH7">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.9819646226131572</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.40176273073173929</v>
       </c>
       <c r="DI7">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.14674216374385785</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.63279959323371127</v>
       </c>
       <c r="DJ7">
-        <f t="shared" ca="1" si="1"/>
-        <v>9.1467884912901365E-2</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.68952744707486613</v>
       </c>
       <c r="DK7">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.80613393458432092</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.27586414480842991</v>
       </c>
       <c r="DL7">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.10724559328341465</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.28267653635235046</v>
       </c>
       <c r="DM7">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.12166229803701134</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.17910821869031979</v>
       </c>
       <c r="DN7">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.49516542113433315</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.35721305445389451</v>
       </c>
       <c r="DO7">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.92353777208519339</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.27125514642401827</v>
       </c>
       <c r="DP7">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.15690172445720818</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.38854424807149146</v>
       </c>
       <c r="DQ7">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.94665508934852871</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.17163913724156543</v>
       </c>
       <c r="DR7">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.9980586239991448</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.12253954174884474</v>
       </c>
       <c r="DS7">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.32502943147460239</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.21595691541637085</v>
       </c>
       <c r="DT7">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.46369246837761313</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5.8360414399227789E-4</v>
       </c>
       <c r="DU7">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.49271483938240812</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.31268839512159297</v>
       </c>
       <c r="DV7">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.36069631107176758</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.53042674353270536</v>
       </c>
       <c r="DW7">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.37598659125002021</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.55158005508032371</v>
       </c>
       <c r="DX7">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.3596282938910278E-3</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.11299182665455554</v>
       </c>
       <c r="DY7">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.1047893065375494E-2</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.59662129747877812</v>
       </c>
       <c r="DZ7">
-        <f t="shared" ca="1" si="1"/>
-        <v>8.79563114652685E-2</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.68742336708835294</v>
       </c>
       <c r="EA7">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.3275317552585929</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.51591697129266212</v>
       </c>
       <c r="EB7">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.15643733171297614</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.94387036405019675</v>
       </c>
       <c r="EC7">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.44134742508561531</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.30024071844353928</v>
       </c>
       <c r="ED7">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.32360292202680807</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.75403955458563166</v>
       </c>
       <c r="EE7">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.36256165094415127</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.86544503230422043</v>
       </c>
       <c r="EF7">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.83959566172804734</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.30671902353296843</v>
       </c>
       <c r="EG7">
-        <f t="shared" ref="EG7:GR7" ca="1" si="2">RAND()</f>
-        <v>0.80140052079043211</v>
+        <f t="shared" ref="EG7:GR7" ca="1" si="7">RAND()</f>
+        <v>0.48167923957475212</v>
       </c>
       <c r="EH7">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.82512033774415094</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.89193298599315918</v>
       </c>
       <c r="EI7">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.99308702578806152</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.24602127152354969</v>
       </c>
       <c r="EJ7">
-        <f t="shared" ca="1" si="2"/>
-        <v>6.9573334177021051E-3</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.73787846906287369</v>
       </c>
       <c r="EK7">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.98547564424402589</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.92458803937037981</v>
       </c>
       <c r="EL7">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.4639841885736367E-3</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.37864586361901309</v>
       </c>
       <c r="EM7">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.31605733077747156</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.92749917694152362</v>
       </c>
       <c r="EN7">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.0436616651466593E-2</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.25624130383573218</v>
       </c>
       <c r="EO7">
-        <f t="shared" ca="1" si="2"/>
-        <v>4.1009736807256392E-2</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.97583604282261993</v>
       </c>
       <c r="EP7">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.66592117626537251</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.10951421676770201</v>
       </c>
       <c r="EQ7">
-        <f t="shared" ca="1" si="2"/>
-        <v>3.1834926208582526E-2</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>9.8872133790106398E-2</v>
       </c>
       <c r="ER7">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.10661159296452538</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.17666727725332088</v>
       </c>
       <c r="ES7">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.42591783392094029</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.61175308836637954</v>
       </c>
       <c r="ET7">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.39709214734385123</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.48123848931067903</v>
       </c>
       <c r="EU7">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.88112583758746121</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.36552415397036253</v>
       </c>
       <c r="EV7">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.8113482779708141</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.57552402694334026</v>
       </c>
       <c r="EW7">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.53840048623938452</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.83134545977774899</v>
       </c>
       <c r="EX7">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.23146101749961023</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.45608057250556167</v>
       </c>
       <c r="EY7">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.81530136038834233</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>6.2191446814726548E-2</v>
       </c>
       <c r="EZ7">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.30675613693744486</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.20126256390796782</v>
       </c>
       <c r="FA7">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.58719356971594583</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.73361386857853839</v>
       </c>
       <c r="FB7">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.84946785767320121</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.96394456406786455</v>
       </c>
       <c r="FC7">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.8015854571134533</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.19951880801157484</v>
       </c>
       <c r="FD7">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.95605050125540392</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.43106884989469207</v>
       </c>
       <c r="FE7">
-        <f t="shared" ca="1" si="2"/>
-        <v>7.3387823884132564E-2</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.10041758635302656</v>
       </c>
       <c r="FF7">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.35905535761505369</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.38787429963867404</v>
       </c>
       <c r="FG7">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.32152664256267605</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.73625289214529577</v>
       </c>
       <c r="FH7">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.13272393625381607</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.38656640720232061</v>
       </c>
       <c r="FI7">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.58277024773915309</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.31191556235843398</v>
       </c>
       <c r="FJ7">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.96598246449553427</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.44084896353970515</v>
       </c>
       <c r="FK7">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.98630342903062951</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.14581964006478276</v>
       </c>
       <c r="FL7">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.98631630635144985</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.52477882379894036</v>
       </c>
       <c r="FM7">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.11806500103156847</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.56226520299220095</v>
       </c>
       <c r="FN7">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.60597628433683892</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.59905326387201918</v>
       </c>
       <c r="FO7">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.49372018987005339</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.21904809922119683</v>
       </c>
       <c r="FP7">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.915855605999498</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.29944625114390877</v>
       </c>
       <c r="FQ7">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.77151942859556277</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.90905104320673524</v>
       </c>
       <c r="FR7">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.23072390420898925</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.54229125523848742</v>
       </c>
       <c r="FS7">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.9543155443203134</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.57992321033028338</v>
       </c>
       <c r="FT7">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.39520689905186424</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>9.7234772178663942E-2</v>
       </c>
       <c r="FU7">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.54135324461243928</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.59421363700161467</v>
       </c>
       <c r="FV7">
-        <f t="shared" ca="1" si="2"/>
-        <v>7.0261215468901961E-3</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.22509405700224783</v>
       </c>
       <c r="FW7">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.3095450732978523</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.78127216510851649</v>
       </c>
       <c r="FX7">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.95448777533746376</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.31124520301478831</v>
       </c>
       <c r="FY7">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.90409493648416406</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.28173603058768082</v>
       </c>
       <c r="FZ7">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.9111556572629832</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.49080067690880191</v>
       </c>
       <c r="GA7">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.63090349157875658</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.23651605111069696</v>
       </c>
       <c r="GB7">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.97373434441737317</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.3352514040045963</v>
       </c>
       <c r="GC7">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.68099252525160048</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.57003031310480234</v>
       </c>
       <c r="GD7">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.339578311261857</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.61271889191281503</v>
       </c>
       <c r="GE7">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.90017782325288931</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.68429728071016038</v>
       </c>
       <c r="GF7">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.10208119512214053</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.90921190241372141</v>
       </c>
       <c r="GG7">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.20725520770712513</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.21488395557685158</v>
       </c>
       <c r="GH7">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.32467238825789257</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.10624564233014544</v>
       </c>
       <c r="GI7">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.28358172664116976</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.78333700859317013</v>
       </c>
       <c r="GJ7">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.85504637687061824</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.27311958112970425</v>
       </c>
       <c r="GK7">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.80198287865192808</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.84140385851104271</v>
       </c>
       <c r="GL7">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.10146729367064489</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.57394806885423688</v>
       </c>
       <c r="GM7">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.26963667974287198</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.51877509925497223</v>
       </c>
       <c r="GN7">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.50210100480994579</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.5839769268727516</v>
       </c>
       <c r="GO7">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.4521103948618066</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.37443359904907358</v>
       </c>
       <c r="GP7">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.61589410580819692</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.12353900719222599</v>
       </c>
       <c r="GQ7">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.36720344217861156</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.7732100826695596</v>
       </c>
       <c r="GR7">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.79831733091130885</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.67386755875998272</v>
       </c>
       <c r="GS7">
-        <f t="shared" ref="GS7:GT7" ca="1" si="3">RAND()</f>
-        <v>1.7990128340762079E-2</v>
+        <f t="shared" ref="GS7:GT7" ca="1" si="8">RAND()</f>
+        <v>0.43302851415452315</v>
       </c>
       <c r="GT7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.92259405488114932</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>0.95501990617327837</v>
       </c>
       <c r="GU7">
         <f ca="1">SUM(B7:GT7)</f>
-        <v>103.92784383387453</v>
+        <v>97.523085646532621</v>
       </c>
       <c r="GV7">
         <f ca="1">GU7*6</f>
-        <v>623.5670630032472</v>
+        <v>585.13851387919567</v>
       </c>
     </row>
     <row r="8" spans="1:204">
@@ -5812,3034 +5836,4055 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2A6FF7D-E38F-3A4B-B60C-B6B2224624B4}">
-  <dimension ref="A1:GS5"/>
+  <dimension ref="A1:F202"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="8.1640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="15"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:201">
-      <c r="A1">
+    <row r="1" spans="1:6">
+      <c r="A1" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="15">
         <v>360.58999999999992</v>
       </c>
-      <c r="B1">
+      <c r="B2" s="16">
+        <v>1764.59</v>
+      </c>
+      <c r="C2" s="15">
+        <v>1404</v>
+      </c>
+      <c r="D2" s="15">
+        <v>0.37435627727959975</v>
+      </c>
+      <c r="E2" s="15">
+        <v>1</v>
+      </c>
+      <c r="F2" s="15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="15">
         <v>62.920000000000016</v>
       </c>
-      <c r="C1">
+      <c r="B3" s="16">
+        <v>352.82</v>
+      </c>
+      <c r="C3" s="15">
+        <v>289.89999999999998</v>
+      </c>
+      <c r="D3" s="15">
+        <v>0.65772187269598403</v>
+      </c>
+      <c r="E3" s="15">
+        <v>1</v>
+      </c>
+      <c r="F3" s="15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="15">
         <v>49.470000000000027</v>
       </c>
-      <c r="D1">
+      <c r="B4" s="16">
+        <v>670.47</v>
+      </c>
+      <c r="C4" s="15">
+        <v>621</v>
+      </c>
+      <c r="D4" s="15">
+        <v>0.74476347209457983</v>
+      </c>
+      <c r="E4" s="15">
+        <v>1</v>
+      </c>
+      <c r="F4" s="15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="15">
         <v>87.12</v>
       </c>
-      <c r="E1">
+      <c r="B5" s="16">
+        <v>408.12</v>
+      </c>
+      <c r="C5" s="15">
+        <v>321</v>
+      </c>
+      <c r="D5" s="15">
+        <v>0.97204479548740275</v>
+      </c>
+      <c r="E5" s="15">
+        <v>1</v>
+      </c>
+      <c r="F5" s="15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="15">
         <v>781.65000000000009</v>
       </c>
-      <c r="F1">
+      <c r="B6" s="16">
+        <v>3411.65</v>
+      </c>
+      <c r="C6" s="15">
+        <v>2630</v>
+      </c>
+      <c r="D6" s="15">
+        <v>0.55646542716220238</v>
+      </c>
+      <c r="E6" s="15">
+        <v>1</v>
+      </c>
+      <c r="F6" s="15">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="15">
         <v>69.899999999999977</v>
       </c>
-      <c r="G1">
+      <c r="B7" s="16">
+        <v>299.89999999999998</v>
+      </c>
+      <c r="C7" s="15">
+        <v>230</v>
+      </c>
+      <c r="D7" s="15">
+        <v>0.66092711417479266</v>
+      </c>
+      <c r="E7" s="15">
+        <v>1</v>
+      </c>
+      <c r="F7" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="15">
         <v>4</v>
       </c>
-      <c r="H1">
+      <c r="B8" s="16">
+        <v>94</v>
+      </c>
+      <c r="C8" s="15">
+        <v>90</v>
+      </c>
+      <c r="D8" s="15">
+        <v>4.6872576280720946E-3</v>
+      </c>
+      <c r="E8" s="15">
+        <v>1</v>
+      </c>
+      <c r="F8" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="15">
         <v>176.88</v>
       </c>
-      <c r="I1">
+      <c r="B9" s="16">
+        <v>799.88</v>
+      </c>
+      <c r="C9" s="15">
+        <v>623</v>
+      </c>
+      <c r="D9" s="15">
+        <v>0.40497182455440872</v>
+      </c>
+      <c r="E9" s="15">
+        <v>1</v>
+      </c>
+      <c r="F9" s="15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="15">
         <v>85.759999999999991</v>
       </c>
-      <c r="J1">
+      <c r="B10" s="16">
+        <v>505.76</v>
+      </c>
+      <c r="C10" s="15">
+        <v>420</v>
+      </c>
+      <c r="D10" s="15">
+        <v>1.2091686915822852E-2</v>
+      </c>
+      <c r="E10" s="15">
+        <v>1</v>
+      </c>
+      <c r="F10" s="15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="15">
         <v>10.649999999999999</v>
       </c>
-      <c r="K1">
+      <c r="B11" s="16">
+        <v>51.65</v>
+      </c>
+      <c r="C11" s="15">
+        <v>41</v>
+      </c>
+      <c r="D11" s="15">
+        <v>0.43182513138021894</v>
+      </c>
+      <c r="E11" s="15">
+        <v>1</v>
+      </c>
+      <c r="F11" s="15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="15">
         <v>101.29000000000002</v>
       </c>
-      <c r="L1">
+      <c r="B12" s="16">
+        <v>329.29</v>
+      </c>
+      <c r="C12" s="15">
+        <v>228</v>
+      </c>
+      <c r="D12" s="15">
+        <v>0.22202538318550058</v>
+      </c>
+      <c r="E12" s="15">
+        <v>1</v>
+      </c>
+      <c r="F12" s="15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="15">
         <v>31.050000000000011</v>
       </c>
-      <c r="M1">
+      <c r="B13" s="16">
+        <v>141.05000000000001</v>
+      </c>
+      <c r="C13" s="15">
+        <v>110</v>
+      </c>
+      <c r="D13" s="15">
+        <v>0.35532193889820685</v>
+      </c>
+      <c r="E13" s="15">
+        <v>1</v>
+      </c>
+      <c r="F13" s="15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="15">
         <v>29.590000000000003</v>
       </c>
-      <c r="N1">
+      <c r="B14" s="16">
+        <v>164.59</v>
+      </c>
+      <c r="C14" s="15">
+        <v>135</v>
+      </c>
+      <c r="D14" s="15">
+        <v>0.58651703777100905</v>
+      </c>
+      <c r="E14" s="15">
+        <v>1</v>
+      </c>
+      <c r="F14" s="15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="15">
         <v>120.77999999999997</v>
       </c>
-      <c r="O1">
+      <c r="B15" s="16">
+        <v>888.78</v>
+      </c>
+      <c r="C15" s="15">
+        <v>768</v>
+      </c>
+      <c r="D15" s="15">
+        <v>0.85121715328549918</v>
+      </c>
+      <c r="E15" s="15">
+        <v>1</v>
+      </c>
+      <c r="F15" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="15">
         <v>43.059999999999945</v>
       </c>
-      <c r="P1">
+      <c r="B16" s="16">
+        <v>741.06</v>
+      </c>
+      <c r="C16" s="15">
+        <v>698</v>
+      </c>
+      <c r="D16" s="15">
+        <v>0.55524321522139808</v>
+      </c>
+      <c r="E16" s="15">
+        <v>1</v>
+      </c>
+      <c r="F16" s="15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="15">
         <v>340.94999999999982</v>
       </c>
-      <c r="Q1">
+      <c r="B17" s="16">
+        <v>2420.9499999999998</v>
+      </c>
+      <c r="C17" s="15">
+        <v>2080</v>
+      </c>
+      <c r="D17" s="15">
+        <v>0.64325251227669911</v>
+      </c>
+      <c r="E17" s="15">
+        <v>1</v>
+      </c>
+      <c r="F17" s="15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="15">
         <v>312.28999999999996</v>
       </c>
-      <c r="R1">
+      <c r="B18" s="16">
+        <v>1529.29</v>
+      </c>
+      <c r="C18" s="15">
+        <v>1217</v>
+      </c>
+      <c r="D18" s="15">
+        <v>0.92059063611164615</v>
+      </c>
+      <c r="E18" s="15">
+        <v>1</v>
+      </c>
+      <c r="F18" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="15">
         <v>122.12</v>
       </c>
-      <c r="S1">
+      <c r="B19" s="16">
+        <v>388.12</v>
+      </c>
+      <c r="C19" s="15">
+        <v>266</v>
+      </c>
+      <c r="D19" s="15">
+        <v>0.31607490648787384</v>
+      </c>
+      <c r="E19" s="15">
+        <v>1</v>
+      </c>
+      <c r="F19" s="15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="15">
         <v>9.57</v>
       </c>
-      <c r="T1">
+      <c r="B20" s="16">
+        <v>30.47</v>
+      </c>
+      <c r="C20" s="15">
+        <v>20.9</v>
+      </c>
+      <c r="D20" s="15">
+        <v>0.26479758085770155</v>
+      </c>
+      <c r="E20" s="15">
+        <v>1</v>
+      </c>
+      <c r="F20" s="15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="15">
         <v>28.939999999999998</v>
       </c>
-      <c r="U1">
+      <c r="B21" s="16">
+        <v>106.94</v>
+      </c>
+      <c r="C21" s="15">
+        <v>78</v>
+      </c>
+      <c r="D21" s="15">
+        <v>0.90933385889033647</v>
+      </c>
+      <c r="E21" s="15">
+        <v>1</v>
+      </c>
+      <c r="F21" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="15">
         <v>87.649999999999977</v>
       </c>
-      <c r="V1">
+      <c r="B22" s="16">
+        <v>611.65</v>
+      </c>
+      <c r="C22" s="15">
+        <v>524</v>
+      </c>
+      <c r="D22" s="15">
+        <v>2.1883777092957968E-2</v>
+      </c>
+      <c r="E22" s="15">
+        <v>1</v>
+      </c>
+      <c r="F22" s="15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="15">
         <v>357.67000000000007</v>
       </c>
-      <c r="W1">
+      <c r="B23" s="16">
+        <v>1777.67</v>
+      </c>
+      <c r="C23" s="15">
+        <v>1420</v>
+      </c>
+      <c r="D23" s="15">
+        <v>4.7717972427888666E-3</v>
+      </c>
+      <c r="E23" s="15">
+        <v>1</v>
+      </c>
+      <c r="F23" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="15">
         <v>87.82</v>
       </c>
-      <c r="X1">
+      <c r="B24" s="16">
+        <v>352.82</v>
+      </c>
+      <c r="C24" s="15">
+        <v>265</v>
+      </c>
+      <c r="D24" s="15">
+        <v>0.92242550865396178</v>
+      </c>
+      <c r="E24" s="15">
+        <v>1</v>
+      </c>
+      <c r="F24" s="15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="15">
         <v>114.59000000000003</v>
       </c>
-      <c r="Y1">
+      <c r="B25" s="16">
+        <v>564.59</v>
+      </c>
+      <c r="C25" s="15">
+        <v>450</v>
+      </c>
+      <c r="D25" s="15">
+        <v>0.1528529873056611</v>
+      </c>
+      <c r="E25" s="15">
+        <v>1</v>
+      </c>
+      <c r="F25" s="15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="15">
         <v>58.710000000000008</v>
       </c>
-      <c r="Z1">
+      <c r="B26" s="16">
+        <v>238.71</v>
+      </c>
+      <c r="C26" s="15">
+        <v>180</v>
+      </c>
+      <c r="D26" s="15">
+        <v>7.5211515410322227E-2</v>
+      </c>
+      <c r="E26" s="15">
+        <v>1</v>
+      </c>
+      <c r="F26" s="15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="15">
         <v>91.649999999999977</v>
       </c>
-      <c r="AA1">
+      <c r="B27" s="16">
+        <v>411.65</v>
+      </c>
+      <c r="C27" s="15">
+        <v>320</v>
+      </c>
+      <c r="D27" s="15">
+        <v>0.54116580812649029</v>
+      </c>
+      <c r="E27" s="15">
+        <v>1</v>
+      </c>
+      <c r="F27" s="15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="15">
         <v>11.530000000000001</v>
       </c>
-      <c r="AB1">
+      <c r="B28" s="16">
+        <v>77.53</v>
+      </c>
+      <c r="C28" s="15">
+        <v>66</v>
+      </c>
+      <c r="D28" s="15">
+        <v>0.35972516947059929</v>
+      </c>
+      <c r="E28" s="15">
+        <v>1</v>
+      </c>
+      <c r="F28" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="15">
         <v>304.81999999999994</v>
       </c>
-      <c r="AC1">
+      <c r="B29" s="16">
+        <v>1152.82</v>
+      </c>
+      <c r="C29" s="15">
+        <v>848</v>
+      </c>
+      <c r="D29" s="15">
+        <v>0.16697557313552025</v>
+      </c>
+      <c r="E29" s="15">
+        <v>1</v>
+      </c>
+      <c r="F29" s="15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="15">
         <v>150.76</v>
       </c>
-      <c r="AD1">
+      <c r="B30" s="16">
+        <v>705.76</v>
+      </c>
+      <c r="C30" s="15">
+        <v>555</v>
+      </c>
+      <c r="D30" s="15">
+        <v>0.38033480713538403</v>
+      </c>
+      <c r="E30" s="15">
+        <v>1</v>
+      </c>
+      <c r="F30" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="15">
         <v>100.89999999999998</v>
       </c>
-      <c r="AE1">
+      <c r="B31" s="16">
+        <v>350.9</v>
+      </c>
+      <c r="C31" s="15">
+        <v>250</v>
+      </c>
+      <c r="D31" s="15">
+        <v>0.93420145289187517</v>
+      </c>
+      <c r="E31" s="15">
+        <v>1</v>
+      </c>
+      <c r="F31" s="15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="15">
         <v>58.70999999999998</v>
       </c>
-      <c r="AF1">
+      <c r="B32" s="16">
+        <v>258.70999999999998</v>
+      </c>
+      <c r="C32" s="15">
+        <v>200</v>
+      </c>
+      <c r="D32" s="15">
+        <v>0.67938821601038524</v>
+      </c>
+      <c r="E32" s="15">
+        <v>1</v>
+      </c>
+      <c r="F32" s="15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="15">
         <v>40.06</v>
       </c>
-      <c r="AG1">
+      <c r="B33" s="16">
+        <v>341.06</v>
+      </c>
+      <c r="C33" s="15">
+        <v>301</v>
+      </c>
+      <c r="D33" s="15">
+        <v>0.37279985268813054</v>
+      </c>
+      <c r="E33" s="15">
+        <v>1</v>
+      </c>
+      <c r="F33" s="15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="15">
         <v>7.4699999999999989</v>
       </c>
-      <c r="AH1">
+      <c r="B34" s="16">
+        <v>30.47</v>
+      </c>
+      <c r="C34" s="15">
+        <v>23</v>
+      </c>
+      <c r="D34" s="15">
+        <v>0.28721126173464817</v>
+      </c>
+      <c r="E34" s="15">
+        <v>1</v>
+      </c>
+      <c r="F34" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="15">
         <v>62.70999999999998</v>
       </c>
-      <c r="AI1">
+      <c r="B35" s="16">
+        <v>458.71</v>
+      </c>
+      <c r="C35" s="15">
+        <v>396</v>
+      </c>
+      <c r="D35" s="15">
+        <v>0.48971797509536197</v>
+      </c>
+      <c r="E35" s="15">
+        <v>1</v>
+      </c>
+      <c r="F35" s="15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="15">
         <v>3.3200000000000003</v>
       </c>
-      <c r="AJ1">
+      <c r="B36" s="16">
+        <v>28.32</v>
+      </c>
+      <c r="C36" s="15">
+        <v>25</v>
+      </c>
+      <c r="D36" s="15">
+        <v>0.98107866182766779</v>
+      </c>
+      <c r="E36" s="15">
+        <v>1</v>
+      </c>
+      <c r="F36" s="15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="15">
         <v>248.76</v>
       </c>
-      <c r="AK1">
+      <c r="B37" s="16">
+        <v>705.76</v>
+      </c>
+      <c r="C37" s="15">
+        <v>457</v>
+      </c>
+      <c r="D37" s="15">
+        <v>0.70198731573743156</v>
+      </c>
+      <c r="E37" s="15">
+        <v>1</v>
+      </c>
+      <c r="F37" s="15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="15">
         <v>398.90000000000009</v>
       </c>
-      <c r="AL1">
+      <c r="B38" s="16">
+        <v>1999.9</v>
+      </c>
+      <c r="C38" s="15">
+        <v>1601</v>
+      </c>
+      <c r="D38" s="15">
+        <v>0.35878466760556094</v>
+      </c>
+      <c r="E38" s="15">
+        <v>1</v>
+      </c>
+      <c r="F38" s="15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="15">
         <v>13.11</v>
       </c>
-      <c r="AM1">
+      <c r="B39" s="16">
+        <v>124.11</v>
+      </c>
+      <c r="C39" s="15">
+        <v>111</v>
+      </c>
+      <c r="D39" s="15">
+        <v>0.33264491317580847</v>
+      </c>
+      <c r="E39" s="15">
+        <v>1</v>
+      </c>
+      <c r="F39" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="15">
         <v>68.12</v>
       </c>
-      <c r="AN1">
+      <c r="B40" s="16">
+        <v>268.12</v>
+      </c>
+      <c r="C40" s="15">
+        <v>200</v>
+      </c>
+      <c r="D40" s="15">
+        <v>0.27114132084728404</v>
+      </c>
+      <c r="E40" s="15">
+        <v>1</v>
+      </c>
+      <c r="F40" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="15">
         <v>37.470000000000027</v>
       </c>
-      <c r="AO1">
+      <c r="B41" s="16">
+        <v>330.47</v>
+      </c>
+      <c r="C41" s="15">
+        <v>293</v>
+      </c>
+      <c r="D41" s="15">
+        <v>0.65691583521087737</v>
+      </c>
+      <c r="E41" s="15">
+        <v>1</v>
+      </c>
+      <c r="F41" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="15">
         <v>63.819999999999993</v>
       </c>
-      <c r="AP1">
+      <c r="B42" s="16">
+        <v>352.82</v>
+      </c>
+      <c r="C42" s="15">
+        <v>289</v>
+      </c>
+      <c r="D42" s="15">
+        <v>0.48568505571280429</v>
+      </c>
+      <c r="E42" s="15">
+        <v>1</v>
+      </c>
+      <c r="F42" s="15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="15">
         <v>371.88000000000011</v>
       </c>
-      <c r="AQ1">
+      <c r="B43" s="16">
+        <v>1999.88</v>
+      </c>
+      <c r="C43" s="15">
+        <v>1628</v>
+      </c>
+      <c r="D43" s="15">
+        <v>0.4302742059665956</v>
+      </c>
+      <c r="E43" s="15">
+        <v>1</v>
+      </c>
+      <c r="F43" s="15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="15">
         <v>264.71000000000004</v>
       </c>
-      <c r="AR1">
+      <c r="B44" s="16">
+        <v>3058.71</v>
+      </c>
+      <c r="C44" s="15">
+        <v>2794</v>
+      </c>
+      <c r="D44" s="15">
+        <v>0.2423432922944595</v>
+      </c>
+      <c r="E44" s="15">
+        <v>1</v>
+      </c>
+      <c r="F44" s="15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="15">
         <v>76.12</v>
       </c>
-      <c r="AS1">
+      <c r="B45" s="16">
+        <v>788.12</v>
+      </c>
+      <c r="C45" s="15">
+        <v>712</v>
+      </c>
+      <c r="D45" s="15">
+        <v>0.33306278816622048</v>
+      </c>
+      <c r="E45" s="15">
+        <v>1</v>
+      </c>
+      <c r="F45" s="15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="15">
         <v>65.12</v>
       </c>
-      <c r="AT1">
+      <c r="B46" s="16">
+        <v>588.12</v>
+      </c>
+      <c r="C46" s="15">
+        <v>523</v>
+      </c>
+      <c r="D46" s="15">
+        <v>0.54748919502617399</v>
+      </c>
+      <c r="E46" s="15">
+        <v>1</v>
+      </c>
+      <c r="F46" s="15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="15">
         <v>99.649999999999977</v>
       </c>
-      <c r="AU1">
+      <c r="B47" s="16">
+        <v>411.65</v>
+      </c>
+      <c r="C47" s="15">
+        <v>312</v>
+      </c>
+      <c r="D47" s="15">
+        <v>0.410756325428977</v>
+      </c>
+      <c r="E47" s="15">
+        <v>1</v>
+      </c>
+      <c r="F47" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="15">
         <v>10.469999999999992</v>
       </c>
-      <c r="AV1">
+      <c r="B48" s="16">
+        <v>72.819999999999993</v>
+      </c>
+      <c r="C48" s="15">
+        <v>62.35</v>
+      </c>
+      <c r="D48" s="15">
+        <v>0.97548292854926721</v>
+      </c>
+      <c r="E48" s="15">
+        <v>1</v>
+      </c>
+      <c r="F48" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="15">
         <v>55.53</v>
       </c>
-      <c r="AW1">
+      <c r="B49" s="16">
+        <v>197.53</v>
+      </c>
+      <c r="C49" s="15">
+        <v>142</v>
+      </c>
+      <c r="D49" s="15">
+        <v>0.17262274247193177</v>
+      </c>
+      <c r="E49" s="15">
+        <v>1</v>
+      </c>
+      <c r="F49" s="15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="15">
         <v>65.82000000000005</v>
       </c>
-      <c r="AX1">
+      <c r="B50" s="16">
+        <v>552.82000000000005</v>
+      </c>
+      <c r="C50" s="15">
+        <v>487</v>
+      </c>
+      <c r="D50" s="15">
+        <v>0.96423934539629064</v>
+      </c>
+      <c r="E50" s="15">
+        <v>1</v>
+      </c>
+      <c r="F50" s="15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="15">
         <v>8.57</v>
       </c>
-      <c r="AY1">
+      <c r="B51" s="16">
+        <v>30.47</v>
+      </c>
+      <c r="C51" s="15">
+        <v>21.9</v>
+      </c>
+      <c r="D51" s="15">
+        <v>0.10446518257511894</v>
+      </c>
+      <c r="E51" s="15">
+        <v>1</v>
+      </c>
+      <c r="F51" s="15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="15">
         <v>4.5900000000000034</v>
       </c>
-      <c r="AZ1">
+      <c r="B52" s="16">
+        <v>124.59</v>
+      </c>
+      <c r="C52" s="15">
+        <v>120</v>
+      </c>
+      <c r="D52" s="15">
+        <v>0.29468729601917343</v>
+      </c>
+      <c r="E52" s="15">
+        <v>1</v>
+      </c>
+      <c r="F52" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="15">
         <v>1336.1800000000003</v>
       </c>
-      <c r="BA1">
+      <c r="B53" s="16">
+        <v>4235.18</v>
+      </c>
+      <c r="C53" s="15">
+        <v>2899</v>
+      </c>
+      <c r="D53" s="15">
+        <v>0.62031335178712299</v>
+      </c>
+      <c r="E53" s="15">
+        <v>1</v>
+      </c>
+      <c r="F53" s="15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="15">
         <v>34.409999999999968</v>
       </c>
-      <c r="BB1">
+      <c r="B54" s="16">
+        <v>823.41</v>
+      </c>
+      <c r="C54" s="15">
+        <v>789</v>
+      </c>
+      <c r="D54" s="15">
+        <v>1.6974912799541886E-2</v>
+      </c>
+      <c r="E54" s="15">
+        <v>1</v>
+      </c>
+      <c r="F54" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="15">
         <v>82.409999999999968</v>
       </c>
-      <c r="BC1">
+      <c r="B55" s="16">
+        <v>823.41</v>
+      </c>
+      <c r="C55" s="15">
+        <v>741</v>
+      </c>
+      <c r="D55" s="15">
+        <v>0.53613207481395186</v>
+      </c>
+      <c r="E55" s="15">
+        <v>1</v>
+      </c>
+      <c r="F55" s="15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="15">
         <v>20.370000000000005</v>
       </c>
-      <c r="BD1">
+      <c r="B56" s="16">
+        <v>249.37</v>
+      </c>
+      <c r="C56" s="15">
+        <v>229</v>
+      </c>
+      <c r="D56" s="15">
+        <v>7.2829764865703472E-2</v>
+      </c>
+      <c r="E56" s="15">
+        <v>1</v>
+      </c>
+      <c r="F56" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="15">
         <v>100.58999999999997</v>
       </c>
-      <c r="BE1">
+      <c r="B57" s="16">
+        <v>364.59</v>
+      </c>
+      <c r="C57" s="15">
+        <v>264</v>
+      </c>
+      <c r="D57" s="15">
+        <v>0.99980204426695318</v>
+      </c>
+      <c r="E57" s="15">
+        <v>1</v>
+      </c>
+      <c r="F57" s="15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="15">
         <v>52.819999999999993</v>
       </c>
-      <c r="BF1">
+      <c r="B58" s="16">
+        <v>352.82</v>
+      </c>
+      <c r="C58" s="15">
+        <v>300</v>
+      </c>
+      <c r="D58" s="15">
+        <v>0.54236962581819836</v>
+      </c>
+      <c r="E58" s="15">
+        <v>1</v>
+      </c>
+      <c r="F58" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="15">
         <v>29.410000000000025</v>
       </c>
-      <c r="BG1">
+      <c r="B59" s="16">
+        <v>423.41</v>
+      </c>
+      <c r="C59" s="15">
+        <v>394</v>
+      </c>
+      <c r="D59" s="15">
+        <v>0.11895692055911911</v>
+      </c>
+      <c r="E59" s="15">
+        <v>1</v>
+      </c>
+      <c r="F59" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="15">
         <v>20.879999999999995</v>
       </c>
-      <c r="BH1">
+      <c r="B60" s="16">
+        <v>199.88</v>
+      </c>
+      <c r="C60" s="15">
+        <v>179</v>
+      </c>
+      <c r="D60" s="15">
+        <v>0.63338741808223842</v>
+      </c>
+      <c r="E60" s="15">
+        <v>1</v>
+      </c>
+      <c r="F60" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="15">
         <v>7.25</v>
       </c>
-      <c r="BI1">
+      <c r="B61" s="16">
+        <v>26.94</v>
+      </c>
+      <c r="C61" s="15">
+        <v>19.690000000000001</v>
+      </c>
+      <c r="D61" s="15">
+        <v>0.20454418429275367</v>
+      </c>
+      <c r="E61" s="15">
+        <v>1</v>
+      </c>
+      <c r="F61" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="15">
         <v>344.27999999999975</v>
       </c>
-      <c r="BJ1">
+      <c r="B62" s="16">
+        <v>2235.1799999999998</v>
+      </c>
+      <c r="C62" s="15">
+        <v>1890.9</v>
+      </c>
+      <c r="D62" s="15">
+        <v>0.35681910907804615</v>
+      </c>
+      <c r="E62" s="15">
+        <v>1</v>
+      </c>
+      <c r="F62" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="15">
         <v>165.40999999999997</v>
       </c>
-      <c r="BK1">
+      <c r="B63" s="16">
+        <v>583.41</v>
+      </c>
+      <c r="C63" s="15">
+        <v>418</v>
+      </c>
+      <c r="D63" s="15">
+        <v>0.78958205983352381</v>
+      </c>
+      <c r="E63" s="15">
+        <v>1</v>
+      </c>
+      <c r="F63" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="15">
         <v>57.120000000000005</v>
       </c>
-      <c r="BL1">
+      <c r="B64" s="16">
+        <v>168.12</v>
+      </c>
+      <c r="C64" s="15">
+        <v>111</v>
+      </c>
+      <c r="D64" s="15">
+        <v>0.57726052979594766</v>
+      </c>
+      <c r="E64" s="15">
+        <v>1</v>
+      </c>
+      <c r="F64" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="15">
         <v>232.76</v>
       </c>
-      <c r="BM1">
+      <c r="B65" s="16">
+        <v>705.76</v>
+      </c>
+      <c r="C65" s="15">
+        <v>473</v>
+      </c>
+      <c r="D65" s="15">
+        <v>0.56717514067499375</v>
+      </c>
+      <c r="E65" s="15">
+        <v>1</v>
+      </c>
+      <c r="F65" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="15">
         <v>98.410000000000025</v>
       </c>
-      <c r="BN1">
+      <c r="B66" s="16">
+        <v>423.41</v>
+      </c>
+      <c r="C66" s="15">
+        <v>325</v>
+      </c>
+      <c r="D66" s="15">
+        <v>0.83748277252608982</v>
+      </c>
+      <c r="E66" s="15">
+        <v>1</v>
+      </c>
+      <c r="F66" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="15">
         <v>7.9399999999999977</v>
       </c>
-      <c r="BO1">
+      <c r="B67" s="16">
+        <v>46.94</v>
+      </c>
+      <c r="C67" s="15">
+        <v>39</v>
+      </c>
+      <c r="D67" s="15">
+        <v>0.41551118835232825</v>
+      </c>
+      <c r="E67" s="15">
+        <v>1</v>
+      </c>
+      <c r="F67" s="15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="15">
         <v>47.899999999999977</v>
       </c>
-      <c r="BP1">
+      <c r="B68" s="16">
+        <v>499.9</v>
+      </c>
+      <c r="C68" s="15">
+        <v>452</v>
+      </c>
+      <c r="D68" s="15">
+        <v>0.80307140156855839</v>
+      </c>
+      <c r="E68" s="15">
+        <v>1</v>
+      </c>
+      <c r="F68" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="15">
         <v>339.58999999999992</v>
       </c>
-      <c r="BQ1">
+      <c r="B69" s="16">
+        <v>1764.59</v>
+      </c>
+      <c r="C69" s="15">
+        <v>1425</v>
+      </c>
+      <c r="D69" s="15">
+        <v>0.27337410112619476</v>
+      </c>
+      <c r="E69" s="15">
+        <v>1</v>
+      </c>
+      <c r="F69" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="15">
         <v>41.29000000000002</v>
       </c>
-      <c r="BR1">
+      <c r="B70" s="16">
+        <v>329.29</v>
+      </c>
+      <c r="C70" s="15">
+        <v>288</v>
+      </c>
+      <c r="D70" s="15">
+        <v>0.72728084035323082</v>
+      </c>
+      <c r="E70" s="15">
+        <v>1</v>
+      </c>
+      <c r="F70" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="15">
         <v>510.94000000000005</v>
       </c>
-      <c r="BS1">
+      <c r="B71" s="16">
+        <v>3446.94</v>
+      </c>
+      <c r="C71" s="15">
+        <v>2936</v>
+      </c>
+      <c r="D71" s="15">
+        <v>0.66923845113457558</v>
+      </c>
+      <c r="E71" s="15">
+        <v>1</v>
+      </c>
+      <c r="F71" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="15">
         <v>69.410000000000025</v>
       </c>
-      <c r="BT1">
+      <c r="B72" s="16">
+        <v>423.41</v>
+      </c>
+      <c r="C72" s="15">
+        <v>354</v>
+      </c>
+      <c r="D72" s="15">
+        <v>0.49304727217535349</v>
+      </c>
+      <c r="E72" s="15">
+        <v>1</v>
+      </c>
+      <c r="F72" s="15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="15">
         <v>15.159999999999997</v>
       </c>
-      <c r="BU1">
+      <c r="B73" s="16">
+        <v>101.06</v>
+      </c>
+      <c r="C73" s="15">
+        <v>85.9</v>
+      </c>
+      <c r="D73" s="15">
+        <v>0.65924011323225673</v>
+      </c>
+      <c r="E73" s="15">
+        <v>1</v>
+      </c>
+      <c r="F73" s="15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="15">
         <v>178.71000000000004</v>
       </c>
-      <c r="BV1">
+      <c r="B74" s="16">
+        <v>1058.71</v>
+      </c>
+      <c r="C74" s="15">
+        <v>880</v>
+      </c>
+      <c r="D74" s="15">
+        <v>0.50994161562175289</v>
+      </c>
+      <c r="E74" s="15">
+        <v>1</v>
+      </c>
+      <c r="F74" s="15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="15">
         <v>53.899999999999977</v>
       </c>
-      <c r="BW1">
+      <c r="B75" s="16">
+        <v>319.89999999999998</v>
+      </c>
+      <c r="C75" s="15">
+        <v>266</v>
+      </c>
+      <c r="D75" s="15">
+        <v>0.41871293269529009</v>
+      </c>
+      <c r="E75" s="15">
+        <v>1</v>
+      </c>
+      <c r="F75" s="15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="15">
         <v>43.240000000000009</v>
       </c>
-      <c r="BX1">
+      <c r="B76" s="16">
+        <v>282.24</v>
+      </c>
+      <c r="C76" s="15">
+        <v>239</v>
+      </c>
+      <c r="D76" s="15">
+        <v>0.70748538880615275</v>
+      </c>
+      <c r="E76" s="15">
+        <v>1</v>
+      </c>
+      <c r="F76" s="15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="15">
         <v>135.47000000000003</v>
       </c>
-      <c r="BY1">
+      <c r="B77" s="16">
+        <v>670.47</v>
+      </c>
+      <c r="C77" s="15">
+        <v>535</v>
+      </c>
+      <c r="D77" s="15">
+        <v>0.4390522107070578</v>
+      </c>
+      <c r="E77" s="15">
+        <v>1</v>
+      </c>
+      <c r="F77" s="15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="15">
         <v>5</v>
       </c>
-      <c r="BZ1">
+      <c r="B78" s="16">
+        <v>54</v>
+      </c>
+      <c r="C78" s="15">
+        <v>49</v>
+      </c>
+      <c r="D78" s="15">
+        <v>0.12283817451230317</v>
+      </c>
+      <c r="E78" s="15">
+        <v>1</v>
+      </c>
+      <c r="F78" s="15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="15">
         <v>3.59</v>
       </c>
-      <c r="CA1">
+      <c r="B79" s="16">
+        <v>24.59</v>
+      </c>
+      <c r="C79" s="15">
+        <v>21</v>
+      </c>
+      <c r="D79" s="15">
+        <v>0.99341843775935934</v>
+      </c>
+      <c r="E79" s="15">
+        <v>1</v>
+      </c>
+      <c r="F79" s="15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="15">
         <v>32.370000000000005</v>
       </c>
-      <c r="CB1">
+      <c r="B80" s="16">
+        <v>149.37</v>
+      </c>
+      <c r="C80" s="15">
+        <v>117</v>
+      </c>
+      <c r="D80" s="15">
+        <v>0.17126066318704458</v>
+      </c>
+      <c r="E80" s="15">
+        <v>1</v>
+      </c>
+      <c r="F80" s="15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="15">
         <v>9</v>
       </c>
-      <c r="CC1">
+      <c r="B81" s="16">
+        <v>54</v>
+      </c>
+      <c r="C81" s="15">
+        <v>45</v>
+      </c>
+      <c r="D81" s="15">
+        <v>0.12599830720459027</v>
+      </c>
+      <c r="E81" s="15">
+        <v>1</v>
+      </c>
+      <c r="F81" s="15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="15">
         <v>62.06</v>
       </c>
-      <c r="CD1">
+      <c r="B82" s="16">
+        <v>341.06</v>
+      </c>
+      <c r="C82" s="15">
+        <v>279</v>
+      </c>
+      <c r="D82" s="15">
+        <v>0.60614366925169494</v>
+      </c>
+      <c r="E82" s="15">
+        <v>1</v>
+      </c>
+      <c r="F82" s="15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="15">
         <v>159.71000000000004</v>
       </c>
-      <c r="CE1">
+      <c r="B83" s="16">
+        <v>658.71</v>
+      </c>
+      <c r="C83" s="15">
+        <v>499</v>
+      </c>
+      <c r="D83" s="15">
+        <v>0.8446847656683858</v>
+      </c>
+      <c r="E83" s="15">
+        <v>1</v>
+      </c>
+      <c r="F83" s="15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="15">
         <v>55.759999999999991</v>
       </c>
-      <c r="CF1">
+      <c r="B84" s="16">
+        <v>425.76</v>
+      </c>
+      <c r="C84" s="15">
+        <v>370</v>
+      </c>
+      <c r="D84" s="15">
+        <v>0.95960507325428257</v>
+      </c>
+      <c r="E84" s="15">
+        <v>1</v>
+      </c>
+      <c r="F84" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="15">
         <v>65.88</v>
       </c>
-      <c r="CG1">
+      <c r="B85" s="16">
+        <v>359.88</v>
+      </c>
+      <c r="C85" s="15">
+        <v>294</v>
+      </c>
+      <c r="D85" s="15">
+        <v>0.55005505346022177</v>
+      </c>
+      <c r="E85" s="15">
+        <v>1</v>
+      </c>
+      <c r="F85" s="15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="15">
         <v>49.70999999999998</v>
       </c>
-      <c r="CH1">
+      <c r="B86" s="16">
+        <v>418.71</v>
+      </c>
+      <c r="C86" s="15">
+        <v>369</v>
+      </c>
+      <c r="D86" s="15">
+        <v>0.59624931494781863</v>
+      </c>
+      <c r="E86" s="15">
+        <v>1</v>
+      </c>
+      <c r="F86" s="15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="15">
         <v>502.73999999999978</v>
       </c>
-      <c r="CI1">
+      <c r="B87" s="16">
+        <v>2705.74</v>
+      </c>
+      <c r="C87" s="15">
+        <v>2203</v>
+      </c>
+      <c r="D87" s="15">
+        <v>0.53927573319220834</v>
+      </c>
+      <c r="E87" s="15">
+        <v>1</v>
+      </c>
+      <c r="F87" s="15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="15">
         <v>11.409999999999997</v>
       </c>
-      <c r="CJ1">
+      <c r="B88" s="16">
+        <v>223.41</v>
+      </c>
+      <c r="C88" s="15">
+        <v>212</v>
+      </c>
+      <c r="D88" s="15">
+        <v>0.99620146653512121</v>
+      </c>
+      <c r="E88" s="15">
+        <v>1</v>
+      </c>
+      <c r="F88" s="15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="15">
         <v>143.24</v>
       </c>
-      <c r="CK1">
+      <c r="B89" s="16">
+        <v>1042.24</v>
+      </c>
+      <c r="C89" s="15">
+        <v>899</v>
+      </c>
+      <c r="D89" s="15">
+        <v>0.36318821947427926</v>
+      </c>
+      <c r="E89" s="15">
+        <v>1</v>
+      </c>
+      <c r="F89" s="15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="15">
         <v>82</v>
       </c>
-      <c r="CL1">
+      <c r="B90" s="16">
+        <v>494</v>
+      </c>
+      <c r="C90" s="15">
+        <v>412</v>
+      </c>
+      <c r="D90" s="15">
+        <v>0.23395011200014126</v>
+      </c>
+      <c r="E90" s="15">
+        <v>1</v>
+      </c>
+      <c r="F90" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="15">
         <v>246.76</v>
       </c>
-      <c r="CM1">
+      <c r="B91" s="16">
+        <v>905.76</v>
+      </c>
+      <c r="C91" s="15">
+        <v>659</v>
+      </c>
+      <c r="D91" s="15">
+        <v>6.1177025384161143E-2</v>
+      </c>
+      <c r="E91" s="15">
+        <v>1</v>
+      </c>
+      <c r="F91" s="15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="15">
         <v>148.88</v>
       </c>
-      <c r="CN1">
+      <c r="B92" s="16">
+        <v>579.88</v>
+      </c>
+      <c r="C92" s="15">
+        <v>431</v>
+      </c>
+      <c r="D92" s="15">
+        <v>0.35244833156041033</v>
+      </c>
+      <c r="E92" s="15">
+        <v>1</v>
+      </c>
+      <c r="F92" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="15">
         <v>14.18</v>
       </c>
-      <c r="CO1">
+      <c r="B93" s="16">
+        <v>55.18</v>
+      </c>
+      <c r="C93" s="15">
+        <v>41</v>
+      </c>
+      <c r="D93" s="15">
+        <v>0.43567194450856006</v>
+      </c>
+      <c r="E93" s="15">
+        <v>1</v>
+      </c>
+      <c r="F93" s="15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="15">
         <v>21.879999999999995</v>
       </c>
-      <c r="CP1">
+      <c r="B94" s="16">
+        <v>199.88</v>
+      </c>
+      <c r="C94" s="15">
+        <v>178</v>
+      </c>
+      <c r="D94" s="15">
+        <v>0.82410569993518556</v>
+      </c>
+      <c r="E94" s="15">
+        <v>1</v>
+      </c>
+      <c r="F94" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="15">
         <v>6.1099999999999994</v>
       </c>
-      <c r="CQ1">
+      <c r="B95" s="16">
+        <v>84.11</v>
+      </c>
+      <c r="C95" s="15">
+        <v>78</v>
+      </c>
+      <c r="D95" s="15">
+        <v>0.81326673731696286</v>
+      </c>
+      <c r="E95" s="15">
+        <v>1</v>
+      </c>
+      <c r="F95" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="15">
         <v>129</v>
       </c>
-      <c r="CR1">
+      <c r="B96" s="16">
+        <v>979</v>
+      </c>
+      <c r="C96" s="15">
+        <v>850</v>
+      </c>
+      <c r="D96" s="15">
+        <v>0.31668689488799873</v>
+      </c>
+      <c r="E96" s="15">
+        <v>1</v>
+      </c>
+      <c r="F96" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="15">
         <v>32.900000000000006</v>
       </c>
-      <c r="CS1">
+      <c r="B97" s="16">
+        <v>208.9</v>
+      </c>
+      <c r="C97" s="15">
+        <v>176</v>
+      </c>
+      <c r="D97" s="15">
+        <v>0.64888325365099486</v>
+      </c>
+      <c r="E97" s="15">
+        <v>1</v>
+      </c>
+      <c r="F97" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="15">
         <v>90</v>
       </c>
-      <c r="CT1">
+      <c r="B98" s="16">
+        <v>399.9</v>
+      </c>
+      <c r="C98" s="15">
+        <v>309.89999999999998</v>
+      </c>
+      <c r="D98" s="15">
+        <v>0.70289108646096399</v>
+      </c>
+      <c r="E98" s="15">
+        <v>1</v>
+      </c>
+      <c r="F98" s="15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="15">
         <v>13.820000000000007</v>
       </c>
-      <c r="CU1">
+      <c r="B99" s="16">
+        <v>108.12</v>
+      </c>
+      <c r="C99" s="15">
+        <v>94.3</v>
+      </c>
+      <c r="D99" s="15">
+        <v>0.59092200366419079</v>
+      </c>
+      <c r="E99" s="15">
+        <v>1</v>
+      </c>
+      <c r="F99" s="15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="15">
         <v>57.370000000000005</v>
       </c>
-      <c r="CV1">
+      <c r="B100" s="16">
+        <v>189.37</v>
+      </c>
+      <c r="C100" s="15">
+        <v>132</v>
+      </c>
+      <c r="D100" s="15">
+        <v>0.95759604789136077</v>
+      </c>
+      <c r="E100" s="15">
+        <v>1</v>
+      </c>
+      <c r="F100" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="15">
         <v>3.8599999999999994</v>
       </c>
-      <c r="CW1">
+      <c r="B101" s="16">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="C101" s="15">
+        <v>68.540000000000006</v>
+      </c>
+      <c r="D101" s="15">
+        <v>0.38994870806975013</v>
+      </c>
+      <c r="E101" s="15">
+        <v>1</v>
+      </c>
+      <c r="F101" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="15">
         <v>9.8999999999999986</v>
       </c>
-      <c r="CX1">
+      <c r="B102" s="16">
+        <v>49.9</v>
+      </c>
+      <c r="C102" s="15">
+        <v>40</v>
+      </c>
+      <c r="D102" s="15">
+        <v>0.45977027889767486</v>
+      </c>
+      <c r="E102" s="15">
+        <v>1</v>
+      </c>
+      <c r="F102" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="15">
         <v>54.120000000000005</v>
       </c>
-      <c r="CY1">
+      <c r="B103" s="16">
+        <v>268.12</v>
+      </c>
+      <c r="C103" s="15">
+        <v>214</v>
+      </c>
+      <c r="D103" s="15">
+        <v>0.28326679249671805</v>
+      </c>
+      <c r="E103" s="15">
+        <v>1</v>
+      </c>
+      <c r="F103" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="15">
         <v>140</v>
       </c>
-      <c r="CZ1">
+      <c r="B104" s="16">
+        <v>1029</v>
+      </c>
+      <c r="C104" s="15">
+        <v>889</v>
+      </c>
+      <c r="D104" s="15">
+        <v>0.78307046612831666</v>
+      </c>
+      <c r="E104" s="15">
+        <v>1</v>
+      </c>
+      <c r="F104" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="15">
         <v>9</v>
       </c>
-      <c r="DA1">
-        <v>1</v>
-      </c>
-      <c r="DB1">
+      <c r="B105" s="16">
+        <v>96.9</v>
+      </c>
+      <c r="C105" s="15">
+        <v>87.9</v>
+      </c>
+      <c r="D105" s="15">
+        <v>0.12059672002108623</v>
+      </c>
+      <c r="E105" s="15">
+        <v>1</v>
+      </c>
+      <c r="F105" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="15">
+        <v>1</v>
+      </c>
+      <c r="B106" s="16">
+        <v>2</v>
+      </c>
+      <c r="C106" s="15">
+        <v>1</v>
+      </c>
+      <c r="D106" s="15">
+        <v>0.7303885477458183</v>
+      </c>
+      <c r="E106" s="15">
+        <v>1</v>
+      </c>
+      <c r="F106" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="15">
         <v>26.949999999999989</v>
       </c>
-      <c r="DC1">
+      <c r="B107" s="16">
+        <v>191.95</v>
+      </c>
+      <c r="C107" s="15">
+        <v>165</v>
+      </c>
+      <c r="D107" s="15">
+        <v>0.12287232277506044</v>
+      </c>
+      <c r="E107" s="15">
+        <v>1</v>
+      </c>
+      <c r="F107" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="15">
         <v>79.13</v>
       </c>
-      <c r="DD1">
+      <c r="B108" s="16">
+        <v>699</v>
+      </c>
+      <c r="C108" s="15">
+        <v>619.87</v>
+      </c>
+      <c r="D108" s="15">
+        <v>0.25559994902008787</v>
+      </c>
+      <c r="E108" s="15">
+        <v>1</v>
+      </c>
+      <c r="F108" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="15">
         <v>20.299999999999997</v>
       </c>
-      <c r="DE1">
+      <c r="B109" s="16">
+        <v>118.84</v>
+      </c>
+      <c r="C109" s="15">
+        <v>98.54</v>
+      </c>
+      <c r="D109" s="15">
+        <v>0.68355745493296449</v>
+      </c>
+      <c r="E109" s="15">
+        <v>1</v>
+      </c>
+      <c r="F109" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="15">
         <v>76.94</v>
       </c>
-      <c r="DF1">
+      <c r="B110" s="16">
+        <v>286.94</v>
+      </c>
+      <c r="C110" s="15">
+        <v>210</v>
+      </c>
+      <c r="D110" s="15">
+        <v>8.3797410812516127E-3</v>
+      </c>
+      <c r="E110" s="15">
+        <v>1</v>
+      </c>
+      <c r="F110" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="15">
         <v>97.460000000000036</v>
       </c>
-      <c r="DG1">
+      <c r="B111" s="16">
+        <v>699</v>
+      </c>
+      <c r="C111" s="15">
+        <v>601.54</v>
+      </c>
+      <c r="D111" s="15">
+        <v>0.33090227598372868</v>
+      </c>
+      <c r="E111" s="15">
+        <v>1</v>
+      </c>
+      <c r="F111" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="15">
         <v>20</v>
       </c>
-      <c r="DH1">
+      <c r="B112" s="16">
+        <v>119.9</v>
+      </c>
+      <c r="C112" s="15">
+        <v>99.9</v>
+      </c>
+      <c r="D112" s="15">
+        <v>0.10718755672763547</v>
+      </c>
+      <c r="E112" s="15">
+        <v>1</v>
+      </c>
+      <c r="F112" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="15">
         <v>83.78</v>
       </c>
-      <c r="DI1">
+      <c r="B113" s="16">
+        <v>194</v>
+      </c>
+      <c r="C113" s="15">
+        <v>110.22</v>
+      </c>
+      <c r="D113" s="15">
+        <v>0.57978466148958074</v>
+      </c>
+      <c r="E113" s="15">
+        <v>1</v>
+      </c>
+      <c r="F113" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="15">
         <v>9.1800000000000068</v>
       </c>
-      <c r="DJ1">
+      <c r="B114" s="16">
+        <v>69.290000000000006</v>
+      </c>
+      <c r="C114" s="15">
+        <v>60.11</v>
+      </c>
+      <c r="D114" s="15">
+        <v>0.90265861480003029</v>
+      </c>
+      <c r="E114" s="15">
+        <v>1</v>
+      </c>
+      <c r="F114" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="15">
         <v>25.890000000000015</v>
       </c>
-      <c r="DK1">
+      <c r="B115" s="16">
+        <v>131.30000000000001</v>
+      </c>
+      <c r="C115" s="15">
+        <v>105.41</v>
+      </c>
+      <c r="D115" s="15">
+        <v>0.53084282265619565</v>
+      </c>
+      <c r="E115" s="15">
+        <v>1</v>
+      </c>
+      <c r="F115" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="15">
         <v>125.39999999999999</v>
       </c>
-      <c r="DL1">
+      <c r="B116" s="16">
+        <v>220.95</v>
+      </c>
+      <c r="C116" s="15">
+        <v>95.55</v>
+      </c>
+      <c r="D116" s="15">
+        <v>0.9835969509751763</v>
+      </c>
+      <c r="E116" s="15">
+        <v>1</v>
+      </c>
+      <c r="F116" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="15">
         <v>313</v>
       </c>
-      <c r="DM1">
+      <c r="B117" s="16">
+        <v>1649</v>
+      </c>
+      <c r="C117" s="15">
+        <v>1336</v>
+      </c>
+      <c r="D117" s="15">
+        <v>0.55583064152065376</v>
+      </c>
+      <c r="E117" s="15">
+        <v>1</v>
+      </c>
+      <c r="F117" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="15">
         <v>36.319999999999993</v>
       </c>
-      <c r="DN1">
+      <c r="B118" s="16">
+        <v>168.32</v>
+      </c>
+      <c r="C118" s="15">
+        <v>132</v>
+      </c>
+      <c r="D118" s="15">
+        <v>0.83497926927273913</v>
+      </c>
+      <c r="E118" s="15">
+        <v>1</v>
+      </c>
+      <c r="F118" s="15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="15">
         <v>10.39</v>
       </c>
-      <c r="DO1">
+      <c r="B119" s="16">
+        <v>109.29</v>
+      </c>
+      <c r="C119" s="15">
+        <v>98.9</v>
+      </c>
+      <c r="D119" s="15">
+        <v>0.40807814168381062</v>
+      </c>
+      <c r="E119" s="15">
+        <v>1</v>
+      </c>
+      <c r="F119" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="15">
         <v>5.1199999999999992</v>
       </c>
-      <c r="DP1">
+      <c r="B120" s="16">
+        <v>16.02</v>
+      </c>
+      <c r="C120" s="15">
+        <v>10.9</v>
+      </c>
+      <c r="D120" s="15">
+        <v>0.26601648664295985</v>
+      </c>
+      <c r="E120" s="15">
+        <v>1</v>
+      </c>
+      <c r="F120" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="15">
         <v>9.9799999999999898</v>
       </c>
-      <c r="DQ1">
+      <c r="B121" s="16">
+        <v>99.88</v>
+      </c>
+      <c r="C121" s="15">
+        <v>89.9</v>
+      </c>
+      <c r="D121" s="15">
+        <v>0.83965923564924971</v>
+      </c>
+      <c r="E121" s="15">
+        <v>1</v>
+      </c>
+      <c r="F121" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="15">
         <v>21.75</v>
       </c>
-      <c r="DR1">
+      <c r="B122" s="16">
+        <v>211.65</v>
+      </c>
+      <c r="C122" s="15">
+        <v>189.9</v>
+      </c>
+      <c r="D122" s="15">
+        <v>0.75911300703461482</v>
+      </c>
+      <c r="E122" s="15">
+        <v>1</v>
+      </c>
+      <c r="F122" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="15">
         <v>12.14</v>
       </c>
-      <c r="DS1">
+      <c r="B123" s="16">
+        <v>102.04</v>
+      </c>
+      <c r="C123" s="15">
+        <v>89.9</v>
+      </c>
+      <c r="D123" s="15">
+        <v>0.57927152387334879</v>
+      </c>
+      <c r="E123" s="15">
+        <v>1</v>
+      </c>
+      <c r="F123" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="15">
         <v>62.34</v>
       </c>
-      <c r="DT1">
+      <c r="B124" s="16">
+        <v>282.24</v>
+      </c>
+      <c r="C124" s="15">
+        <v>219.9</v>
+      </c>
+      <c r="D124" s="15">
+        <v>0.14553870700047367</v>
+      </c>
+      <c r="E124" s="15">
+        <v>1</v>
+      </c>
+      <c r="F124" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="15">
         <v>56.680000000000007</v>
       </c>
-      <c r="DU1">
+      <c r="B125" s="16">
+        <v>257.79000000000002</v>
+      </c>
+      <c r="C125" s="15">
+        <v>201.11</v>
+      </c>
+      <c r="D125" s="15">
+        <v>0.81549994368742518</v>
+      </c>
+      <c r="E125" s="15">
+        <v>1</v>
+      </c>
+      <c r="F125" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="15">
         <v>100.9</v>
       </c>
-      <c r="DV1">
+      <c r="B126" s="16">
+        <v>210.9</v>
+      </c>
+      <c r="C126" s="15">
+        <v>110</v>
+      </c>
+      <c r="D126" s="15">
+        <v>0.99796615219857876</v>
+      </c>
+      <c r="E126" s="15">
+        <v>1</v>
+      </c>
+      <c r="F126" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="15">
         <v>200</v>
       </c>
-      <c r="DW1">
+      <c r="B127" s="16">
+        <v>1099</v>
+      </c>
+      <c r="C127" s="15">
+        <v>899</v>
+      </c>
+      <c r="D127" s="15">
+        <v>3.8004366557549241E-2</v>
+      </c>
+      <c r="E127" s="15">
+        <v>1</v>
+      </c>
+      <c r="F127" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="15">
         <v>10.899999999999999</v>
       </c>
-      <c r="DX1">
+      <c r="B128" s="16">
+        <v>49.9</v>
+      </c>
+      <c r="C128" s="15">
+        <v>39</v>
+      </c>
+      <c r="D128" s="15">
+        <v>0.17381854717253031</v>
+      </c>
+      <c r="E128" s="15">
+        <v>1</v>
+      </c>
+      <c r="F128" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="15">
         <v>12.900000000000006</v>
       </c>
-      <c r="DY1">
+      <c r="B129" s="16">
+        <v>121.9</v>
+      </c>
+      <c r="C129" s="15">
+        <v>109</v>
+      </c>
+      <c r="D129" s="15">
+        <v>0.44645183712314307</v>
+      </c>
+      <c r="E129" s="15">
+        <v>1</v>
+      </c>
+      <c r="F129" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="15">
         <v>100.06</v>
       </c>
-      <c r="DZ1">
+      <c r="B130" s="16">
+        <v>421.06</v>
+      </c>
+      <c r="C130" s="15">
+        <v>321</v>
+      </c>
+      <c r="D130" s="15">
+        <v>0.60695660792448192</v>
+      </c>
+      <c r="E130" s="15">
+        <v>1</v>
+      </c>
+      <c r="F130" s="15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="15">
         <v>59.70999999999998</v>
       </c>
-      <c r="EA1">
+      <c r="B131" s="16">
+        <v>458.71</v>
+      </c>
+      <c r="C131" s="15">
+        <v>399</v>
+      </c>
+      <c r="D131" s="15">
+        <v>0.66564481645400497</v>
+      </c>
+      <c r="E131" s="15">
+        <v>1</v>
+      </c>
+      <c r="F131" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="15">
         <v>30.840000000000003</v>
       </c>
-      <c r="EB1">
+      <c r="B132" s="16">
+        <v>138.84</v>
+      </c>
+      <c r="C132" s="15">
+        <v>108</v>
+      </c>
+      <c r="D132" s="15">
+        <v>0.40908339931815685</v>
+      </c>
+      <c r="E132" s="15">
+        <v>1</v>
+      </c>
+      <c r="F132" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" s="15">
         <v>37.259999999999991</v>
       </c>
-      <c r="EC1">
+      <c r="B133" s="16">
+        <v>147.26</v>
+      </c>
+      <c r="C133" s="15">
+        <v>110</v>
+      </c>
+      <c r="D133" s="15">
+        <v>0.68999907899953306</v>
+      </c>
+      <c r="E133" s="15">
+        <v>1</v>
+      </c>
+      <c r="F133" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="15">
         <v>40.470000000000027</v>
       </c>
-      <c r="ED1">
+      <c r="B134" s="16">
+        <v>270.47000000000003</v>
+      </c>
+      <c r="C134" s="15">
+        <v>230</v>
+      </c>
+      <c r="D134" s="15">
+        <v>0.12282170870538323</v>
+      </c>
+      <c r="E134" s="15">
+        <v>1</v>
+      </c>
+      <c r="F134" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" s="15">
         <v>32.050000000000011</v>
       </c>
-      <c r="EE1">
+      <c r="B135" s="16">
+        <v>421.05</v>
+      </c>
+      <c r="C135" s="15">
+        <v>389</v>
+      </c>
+      <c r="D135" s="15">
+        <v>0.80723336045860739</v>
+      </c>
+      <c r="E135" s="15">
+        <v>1</v>
+      </c>
+      <c r="F135" s="15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="15">
         <v>30</v>
       </c>
-      <c r="EF1">
+      <c r="B136" s="16">
+        <v>1029</v>
+      </c>
+      <c r="C136" s="15">
+        <v>999</v>
+      </c>
+      <c r="D136" s="15">
+        <v>0.2177287517996106</v>
+      </c>
+      <c r="E136" s="15">
+        <v>1</v>
+      </c>
+      <c r="F136" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" s="15">
         <v>7.7600000000000051</v>
       </c>
-      <c r="EG1">
+      <c r="B137" s="16">
+        <v>105.76</v>
+      </c>
+      <c r="C137" s="15">
+        <v>98</v>
+      </c>
+      <c r="D137" s="15">
+        <v>0.35384775392537704</v>
+      </c>
+      <c r="E137" s="15">
+        <v>1</v>
+      </c>
+      <c r="F137" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" s="15">
         <v>59.839999999999975</v>
       </c>
-      <c r="EH1">
+      <c r="B138" s="16">
+        <v>378.84</v>
+      </c>
+      <c r="C138" s="15">
+        <v>319</v>
+      </c>
+      <c r="D138" s="15">
+        <v>0.15506215395789014</v>
+      </c>
+      <c r="E138" s="15">
+        <v>1</v>
+      </c>
+      <c r="F138" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" s="15">
         <v>42.06</v>
       </c>
-      <c r="EI1">
+      <c r="B139" s="16">
+        <v>241.06</v>
+      </c>
+      <c r="C139" s="15">
+        <v>199</v>
+      </c>
+      <c r="D139" s="15">
+        <v>0.50338757926603328</v>
+      </c>
+      <c r="E139" s="15">
+        <v>1</v>
+      </c>
+      <c r="F139" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" s="15">
         <v>117.29000000000002</v>
       </c>
-      <c r="EJ1">
+      <c r="B140" s="16">
+        <v>429.29</v>
+      </c>
+      <c r="C140" s="15">
+        <v>312</v>
+      </c>
+      <c r="D140" s="15">
+        <v>0.68924734980024183</v>
+      </c>
+      <c r="E140" s="15">
+        <v>1</v>
+      </c>
+      <c r="F140" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" s="15">
         <v>155</v>
       </c>
-      <c r="EK1">
+      <c r="B141" s="16">
+        <v>699</v>
+      </c>
+      <c r="C141" s="15">
+        <v>544</v>
+      </c>
+      <c r="D141" s="15">
+        <v>0.99240706981864568</v>
+      </c>
+      <c r="E141" s="15">
+        <v>1</v>
+      </c>
+      <c r="F141" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" s="15">
         <v>67.550000000000011</v>
       </c>
-      <c r="EL1">
+      <c r="B142" s="16">
+        <v>276.55</v>
+      </c>
+      <c r="C142" s="15">
+        <v>209</v>
+      </c>
+      <c r="D142" s="15">
+        <v>0.51167687024452169</v>
+      </c>
+      <c r="E142" s="15">
+        <v>1</v>
+      </c>
+      <c r="F142" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" s="15">
         <v>10.57</v>
       </c>
-      <c r="EM1">
+      <c r="B143" s="16">
+        <v>70.47</v>
+      </c>
+      <c r="C143" s="15">
+        <v>59.9</v>
+      </c>
+      <c r="D143" s="15">
+        <v>0.77415332202643228</v>
+      </c>
+      <c r="E143" s="15">
+        <v>1</v>
+      </c>
+      <c r="F143" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" s="15">
         <v>8.5300000000000011</v>
       </c>
-      <c r="EN1">
+      <c r="B144" s="16">
+        <v>57.53</v>
+      </c>
+      <c r="C144" s="15">
+        <v>49</v>
+      </c>
+      <c r="D144" s="15">
+        <v>0.76746365232341707</v>
+      </c>
+      <c r="E144" s="15">
+        <v>1</v>
+      </c>
+      <c r="F144" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" s="15">
         <v>22.650000000000006</v>
       </c>
-      <c r="EO1">
+      <c r="B145" s="16">
+        <v>211.65</v>
+      </c>
+      <c r="C145" s="15">
+        <v>189</v>
+      </c>
+      <c r="D145" s="15">
+        <v>0.14702773803831215</v>
+      </c>
+      <c r="E145" s="15">
+        <v>1</v>
+      </c>
+      <c r="F145" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" s="15">
         <v>222.89999999999998</v>
       </c>
-      <c r="EP1">
+      <c r="B146" s="16">
+        <v>999.9</v>
+      </c>
+      <c r="C146" s="15">
+        <v>777</v>
+      </c>
+      <c r="D146" s="15">
+        <v>0.48382306153356014</v>
+      </c>
+      <c r="E146" s="15">
+        <v>1</v>
+      </c>
+      <c r="F146" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" s="15">
         <v>19.240000000000009</v>
       </c>
-      <c r="EQ1">
+      <c r="B147" s="16">
+        <v>142.24</v>
+      </c>
+      <c r="C147" s="15">
+        <v>123</v>
+      </c>
+      <c r="D147" s="15">
+        <v>0.53665305144812925</v>
+      </c>
+      <c r="E147" s="15">
+        <v>1</v>
+      </c>
+      <c r="F147" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" s="15">
         <v>135</v>
       </c>
-      <c r="ER1">
+      <c r="B148" s="16">
+        <v>494</v>
+      </c>
+      <c r="C148" s="15">
+        <v>359</v>
+      </c>
+      <c r="D148" s="15">
+        <v>0.40011460657060249</v>
+      </c>
+      <c r="E148" s="15">
+        <v>1</v>
+      </c>
+      <c r="F148" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" s="15">
         <v>13.899999999999999</v>
       </c>
-      <c r="ES1">
+      <c r="B149" s="16">
+        <v>49.9</v>
+      </c>
+      <c r="C149" s="15">
+        <v>36</v>
+      </c>
+      <c r="D149" s="15">
+        <v>0.10868631861085021</v>
+      </c>
+      <c r="E149" s="15">
+        <v>1</v>
+      </c>
+      <c r="F149" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" s="15">
         <v>19.53</v>
       </c>
-      <c r="ET1">
+      <c r="B150" s="16">
+        <v>117.53</v>
+      </c>
+      <c r="C150" s="15">
+        <v>98</v>
+      </c>
+      <c r="D150" s="15">
+        <v>0.14917643054518237</v>
+      </c>
+      <c r="E150" s="15">
+        <v>1</v>
+      </c>
+      <c r="F150" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" s="15">
         <v>14.239999999999995</v>
       </c>
-      <c r="EU1">
+      <c r="B151" s="16">
+        <v>82.24</v>
+      </c>
+      <c r="C151" s="15">
+        <v>68</v>
+      </c>
+      <c r="D151" s="15">
+        <v>0.18839140129698639</v>
+      </c>
+      <c r="E151" s="15">
+        <v>1</v>
+      </c>
+      <c r="F151" s="15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" s="15">
         <v>35.409999999999997</v>
       </c>
-      <c r="EV1">
+      <c r="B152" s="16">
+        <v>223.41</v>
+      </c>
+      <c r="C152" s="15">
+        <v>188</v>
+      </c>
+      <c r="D152" s="15">
+        <v>0.74285646885268997</v>
+      </c>
+      <c r="E152" s="15">
+        <v>1</v>
+      </c>
+      <c r="F152" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" s="15">
         <v>8.8999999999999986</v>
       </c>
-      <c r="EW1">
+      <c r="B153" s="16">
+        <v>30.9</v>
+      </c>
+      <c r="C153" s="15">
+        <v>22</v>
+      </c>
+      <c r="D153" s="15">
+        <v>0.76453897192560316</v>
+      </c>
+      <c r="E153" s="15">
+        <v>1</v>
+      </c>
+      <c r="F153" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" s="15">
         <v>194.88</v>
       </c>
-      <c r="EX1">
+      <c r="B154" s="16">
+        <v>939.88</v>
+      </c>
+      <c r="C154" s="15">
+        <v>745</v>
+      </c>
+      <c r="D154" s="15">
+        <v>0.33925985333735909</v>
+      </c>
+      <c r="E154" s="15">
+        <v>1</v>
+      </c>
+      <c r="F154" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" s="15">
         <v>23.710000000000036</v>
       </c>
-      <c r="EY1">
+      <c r="B155" s="16">
+        <v>678.71</v>
+      </c>
+      <c r="C155" s="15">
+        <v>655</v>
+      </c>
+      <c r="D155" s="15">
+        <v>0.7373421852548413</v>
+      </c>
+      <c r="E155" s="15">
+        <v>1</v>
+      </c>
+      <c r="F155" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" s="15">
         <v>5.4699999999999989</v>
       </c>
-      <c r="EZ1">
+      <c r="B156" s="16">
+        <v>50.47</v>
+      </c>
+      <c r="C156" s="15">
+        <v>45</v>
+      </c>
+      <c r="D156" s="15">
+        <v>0.56337671972724723</v>
+      </c>
+      <c r="E156" s="15">
+        <v>1</v>
+      </c>
+      <c r="F156" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" s="15">
         <v>95.470000000000027</v>
       </c>
-      <c r="FA1">
+      <c r="B157" s="16">
+        <v>450.47</v>
+      </c>
+      <c r="C157" s="15">
+        <v>355</v>
+      </c>
+      <c r="D157" s="15">
+        <v>0.57172142491387545</v>
+      </c>
+      <c r="E157" s="15">
+        <v>1</v>
+      </c>
+      <c r="F157" s="15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" s="15">
         <v>275.47000000000003</v>
       </c>
-      <c r="FB1">
+      <c r="B158" s="16">
+        <v>1730.47</v>
+      </c>
+      <c r="C158" s="15">
+        <v>1455</v>
+      </c>
+      <c r="D158" s="15">
+        <v>0.27032973510139491</v>
+      </c>
+      <c r="E158" s="15">
+        <v>1</v>
+      </c>
+      <c r="F158" s="15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" s="15">
         <v>169.11999999999989</v>
       </c>
-      <c r="FC1">
+      <c r="B159" s="16">
+        <v>1268.1199999999999</v>
+      </c>
+      <c r="C159" s="15">
+        <v>1099</v>
+      </c>
+      <c r="D159" s="15">
+        <v>0.70434455074598246</v>
+      </c>
+      <c r="E159" s="15">
+        <v>1</v>
+      </c>
+      <c r="F159" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" s="15">
         <v>51.470000000000027</v>
       </c>
-      <c r="FD1">
+      <c r="B160" s="16">
+        <v>650.47</v>
+      </c>
+      <c r="C160" s="15">
+        <v>599</v>
+      </c>
+      <c r="D160" s="15">
+        <v>0.44904276375951413</v>
+      </c>
+      <c r="E160" s="15">
+        <v>1</v>
+      </c>
+      <c r="F160" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" s="15">
         <v>100.77999999999997</v>
       </c>
-      <c r="FE1">
+      <c r="B161" s="16">
+        <v>388.78</v>
+      </c>
+      <c r="C161" s="15">
+        <v>288</v>
+      </c>
+      <c r="D161" s="15">
+        <v>2.3051012041199637E-2</v>
+      </c>
+      <c r="E161" s="15">
+        <v>1</v>
+      </c>
+      <c r="F161" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" s="15">
         <v>120.35000000000002</v>
       </c>
-      <c r="FF1">
+      <c r="B162" s="16">
+        <v>376.35</v>
+      </c>
+      <c r="C162" s="15">
+        <v>256</v>
+      </c>
+      <c r="D162" s="15">
+        <v>0.29843237736546369</v>
+      </c>
+      <c r="E162" s="15">
+        <v>1</v>
+      </c>
+      <c r="F162" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" s="15">
         <v>253</v>
       </c>
-      <c r="FG1">
+      <c r="B163" s="16">
+        <v>1994</v>
+      </c>
+      <c r="C163" s="15">
+        <v>1741</v>
+      </c>
+      <c r="D163" s="15">
+        <v>0.5456226779487966</v>
+      </c>
+      <c r="E163" s="15">
+        <v>1</v>
+      </c>
+      <c r="F163" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" s="15">
         <v>3517.6499999999978</v>
       </c>
-      <c r="FH1">
+      <c r="B164" s="16">
+        <v>17046.939999999999</v>
+      </c>
+      <c r="C164" s="15">
+        <v>13529.29</v>
+      </c>
+      <c r="D164" s="15">
+        <v>0.35276093457735946</v>
+      </c>
+      <c r="E164" s="15">
+        <v>1</v>
+      </c>
+      <c r="F164" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" s="15">
         <v>4154.8600000000006</v>
       </c>
-      <c r="FI1">
+      <c r="B165" s="16">
+        <v>13705.76</v>
+      </c>
+      <c r="C165" s="15">
+        <v>9550.9</v>
+      </c>
+      <c r="D165" s="15">
+        <v>0.21557464620660838</v>
+      </c>
+      <c r="E165" s="15">
+        <v>1</v>
+      </c>
+      <c r="F165" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" s="15">
         <v>99.220000000000027</v>
       </c>
-      <c r="FJ1">
+      <c r="B166" s="16">
+        <v>568.12</v>
+      </c>
+      <c r="C166" s="15">
+        <v>468.9</v>
+      </c>
+      <c r="D166" s="15">
+        <v>0.70599992336388173</v>
+      </c>
+      <c r="E166" s="15">
+        <v>1</v>
+      </c>
+      <c r="F166" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" s="15">
         <v>157.65000000000009</v>
       </c>
-      <c r="FK1">
+      <c r="B167" s="16">
+        <v>2211.65</v>
+      </c>
+      <c r="C167" s="15">
+        <v>2054</v>
+      </c>
+      <c r="D167" s="15">
+        <v>0.70864152152222615</v>
+      </c>
+      <c r="E167" s="15">
+        <v>1</v>
+      </c>
+      <c r="F167" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" s="15">
         <v>100.18</v>
       </c>
-      <c r="FL1">
+      <c r="B168" s="16">
+        <v>399.88</v>
+      </c>
+      <c r="C168" s="15">
+        <v>299.7</v>
+      </c>
+      <c r="D168" s="15">
+        <v>0.60706235820092669</v>
+      </c>
+      <c r="E168" s="15">
+        <v>1</v>
+      </c>
+      <c r="F168" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" s="15">
         <v>93.580000000000013</v>
       </c>
-      <c r="FM1">
+      <c r="B169" s="16">
+        <v>348.12</v>
+      </c>
+      <c r="C169" s="15">
+        <v>254.54</v>
+      </c>
+      <c r="D169" s="15">
+        <v>4.5847595053781665E-2</v>
+      </c>
+      <c r="E169" s="15">
+        <v>1</v>
+      </c>
+      <c r="F169" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" s="15">
         <v>46.349999999999994</v>
       </c>
-      <c r="FN1">
+      <c r="B170" s="16">
+        <v>136.35</v>
+      </c>
+      <c r="C170" s="15">
+        <v>90</v>
+      </c>
+      <c r="D170" s="15">
+        <v>0.94231381488216548</v>
+      </c>
+      <c r="E170" s="15">
+        <v>1</v>
+      </c>
+      <c r="F170" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" s="15">
         <v>50.589999999999975</v>
       </c>
-      <c r="FO1">
+      <c r="B171" s="16">
+        <v>304.58999999999997</v>
+      </c>
+      <c r="C171" s="15">
+        <v>254</v>
+      </c>
+      <c r="D171" s="15">
+        <v>0.68002756012646537</v>
+      </c>
+      <c r="E171" s="15">
+        <v>1</v>
+      </c>
+      <c r="F171" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172" s="15">
         <v>201.88000000000011</v>
       </c>
-      <c r="FP1">
+      <c r="B172" s="16">
+        <v>1199.8800000000001</v>
+      </c>
+      <c r="C172" s="15">
+        <v>998</v>
+      </c>
+      <c r="D172" s="15">
+        <v>0.89289303881800641</v>
+      </c>
+      <c r="E172" s="15">
+        <v>1</v>
+      </c>
+      <c r="F172" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" s="15">
         <v>5.4000000000000057</v>
       </c>
-      <c r="FQ1">
+      <c r="B173" s="16">
+        <v>74</v>
+      </c>
+      <c r="C173" s="15">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="D173" s="15">
+        <v>0.73392797668576415</v>
+      </c>
+      <c r="E173" s="15">
+        <v>1</v>
+      </c>
+      <c r="F173" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174" s="15">
         <v>850.15999999999985</v>
       </c>
-      <c r="FR1">
+      <c r="B174" s="16">
+        <v>2941.06</v>
+      </c>
+      <c r="C174" s="15">
+        <v>2090.9</v>
+      </c>
+      <c r="D174" s="15">
+        <v>0.7806821887825236</v>
+      </c>
+      <c r="E174" s="15">
+        <v>1</v>
+      </c>
+      <c r="F174" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" s="15">
         <v>379.28999999999996</v>
       </c>
-      <c r="FS1">
+      <c r="B175" s="16">
+        <v>1729.29</v>
+      </c>
+      <c r="C175" s="15">
+        <v>1350</v>
+      </c>
+      <c r="D175" s="15">
+        <v>0.7508529371184155</v>
+      </c>
+      <c r="E175" s="15">
+        <v>1</v>
+      </c>
+      <c r="F175" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" s="15">
         <v>281.34999999999991</v>
       </c>
-      <c r="FT1">
+      <c r="B176" s="16">
+        <v>1136.3499999999999</v>
+      </c>
+      <c r="C176" s="15">
+        <v>855</v>
+      </c>
+      <c r="D176" s="15">
+        <v>0.3661619861350448</v>
+      </c>
+      <c r="E176" s="15">
+        <v>1</v>
+      </c>
+      <c r="F176" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" s="15">
         <v>390.17999999999984</v>
       </c>
-      <c r="FU1">
+      <c r="B177" s="16">
+        <v>2235.1799999999998</v>
+      </c>
+      <c r="C177" s="15">
+        <v>1845</v>
+      </c>
+      <c r="D177" s="15">
+        <v>0.8423142005844062</v>
+      </c>
+      <c r="E177" s="15">
+        <v>1</v>
+      </c>
+      <c r="F177" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" s="15">
         <v>1497.2199999999993</v>
       </c>
-      <c r="FV1">
+      <c r="B178" s="16">
+        <v>8352.82</v>
+      </c>
+      <c r="C178" s="15">
+        <v>6855.6</v>
+      </c>
+      <c r="D178" s="15">
+        <v>0.25599817996085161</v>
+      </c>
+      <c r="E178" s="15">
+        <v>1</v>
+      </c>
+      <c r="F178" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" s="15">
         <v>828.18000000000006</v>
       </c>
-      <c r="FW1">
+      <c r="B179" s="16">
+        <v>1918.78</v>
+      </c>
+      <c r="C179" s="15">
+        <v>1090.5999999999999</v>
+      </c>
+      <c r="D179" s="15">
+        <v>0.34953900030181706</v>
+      </c>
+      <c r="E179" s="15">
+        <v>1</v>
+      </c>
+      <c r="F179" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" s="15">
         <v>89.77</v>
       </c>
-      <c r="FX1">
+      <c r="B180" s="16">
+        <v>199.88</v>
+      </c>
+      <c r="C180" s="15">
+        <v>110.11</v>
+      </c>
+      <c r="D180" s="15">
+        <v>0.15908945405392583</v>
+      </c>
+      <c r="E180" s="15">
+        <v>1</v>
+      </c>
+      <c r="F180" s="15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" s="15">
         <v>19.819999999999993</v>
       </c>
-      <c r="FY1">
+      <c r="B181" s="16">
+        <v>152.82</v>
+      </c>
+      <c r="C181" s="15">
+        <v>133</v>
+      </c>
+      <c r="D181" s="15">
+        <v>0.57042857456920704</v>
+      </c>
+      <c r="E181" s="15">
+        <v>1</v>
+      </c>
+      <c r="F181" s="15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182" s="15">
         <v>78.899999999999977</v>
       </c>
-      <c r="FZ1">
+      <c r="B182" s="16">
+        <v>499.9</v>
+      </c>
+      <c r="C182" s="15">
+        <v>421</v>
+      </c>
+      <c r="D182" s="15">
+        <v>0.46822114736432308</v>
+      </c>
+      <c r="E182" s="15">
+        <v>1</v>
+      </c>
+      <c r="F182" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" s="15">
         <v>1041.5900000000001</v>
       </c>
-      <c r="GA1">
+      <c r="B183" s="16">
+        <v>7764.59</v>
+      </c>
+      <c r="C183" s="15">
+        <v>6723</v>
+      </c>
+      <c r="D183" s="15">
+        <v>0.68335774228448354</v>
+      </c>
+      <c r="E183" s="15">
+        <v>1</v>
+      </c>
+      <c r="F183" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184" s="15">
         <v>64.62</v>
       </c>
-      <c r="GB1">
+      <c r="B184" s="16">
+        <v>188.12</v>
+      </c>
+      <c r="C184" s="15">
+        <v>123.5</v>
+      </c>
+      <c r="D184" s="15">
+        <v>5.6598560450001667E-2</v>
+      </c>
+      <c r="E184" s="15">
+        <v>1</v>
+      </c>
+      <c r="F184" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185" s="15">
         <v>35.579999999999984</v>
       </c>
-      <c r="GC1">
+      <c r="B185" s="16">
+        <v>435.18</v>
+      </c>
+      <c r="C185" s="15">
+        <v>399.6</v>
+      </c>
+      <c r="D185" s="15">
+        <v>0.30121819060832544</v>
+      </c>
+      <c r="E185" s="15">
+        <v>1</v>
+      </c>
+      <c r="F185" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186" s="15">
         <v>310.88000000000011</v>
       </c>
-      <c r="GD1">
+      <c r="B186" s="16">
+        <v>2199.88</v>
+      </c>
+      <c r="C186" s="15">
+        <v>1889</v>
+      </c>
+      <c r="D186" s="15">
+        <v>0.29150959881495198</v>
+      </c>
+      <c r="E186" s="15">
+        <v>1</v>
+      </c>
+      <c r="F186" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187" s="15">
         <v>476.89999999999964</v>
       </c>
-      <c r="GE1">
+      <c r="B187" s="16">
+        <v>4288.8999999999996</v>
+      </c>
+      <c r="C187" s="15">
+        <v>3812</v>
+      </c>
+      <c r="D187" s="15">
+        <v>0.25289204183440994</v>
+      </c>
+      <c r="E187" s="15">
+        <v>1</v>
+      </c>
+      <c r="F187" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188" s="15">
         <v>547.76000000000022</v>
       </c>
-      <c r="GF1">
+      <c r="B188" s="16">
+        <v>4305.76</v>
+      </c>
+      <c r="C188" s="15">
+        <v>3758</v>
+      </c>
+      <c r="D188" s="15">
+        <v>0.93179111886824217</v>
+      </c>
+      <c r="E188" s="15">
+        <v>1</v>
+      </c>
+      <c r="F188" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189" s="15">
         <v>763.09000000000015</v>
       </c>
-      <c r="GG1">
+      <c r="B189" s="16">
+        <v>7017.53</v>
+      </c>
+      <c r="C189" s="15">
+        <v>6254.44</v>
+      </c>
+      <c r="D189" s="15">
+        <v>0.11145816701241285</v>
+      </c>
+      <c r="E189" s="15">
+        <v>1</v>
+      </c>
+      <c r="F189" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" s="15">
         <v>376.75</v>
       </c>
-      <c r="GH1">
+      <c r="B190" s="16">
+        <v>7631.65</v>
+      </c>
+      <c r="C190" s="15">
+        <v>7254.9</v>
+      </c>
+      <c r="D190" s="15">
+        <v>0.62674560042435412</v>
+      </c>
+      <c r="E190" s="15">
+        <v>1</v>
+      </c>
+      <c r="F190" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191" s="15">
         <v>699.98</v>
       </c>
-      <c r="GI1">
+      <c r="B191" s="16">
+        <v>3599.88</v>
+      </c>
+      <c r="C191" s="15">
+        <v>2899.9</v>
+      </c>
+      <c r="D191" s="15">
+        <v>0.16146008407881585</v>
+      </c>
+      <c r="E191" s="15">
+        <v>1</v>
+      </c>
+      <c r="F191" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" s="15">
         <v>1342.4500000000007</v>
       </c>
-      <c r="GJ1">
+      <c r="B192" s="16">
+        <v>7576.35</v>
+      </c>
+      <c r="C192" s="15">
+        <v>6233.9</v>
+      </c>
+      <c r="D192" s="15">
+        <v>0.79765622226735644</v>
+      </c>
+      <c r="E192" s="15">
+        <v>1</v>
+      </c>
+      <c r="F192" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193" s="15">
         <v>13.11</v>
       </c>
-      <c r="GK1">
+      <c r="B193" s="16">
+        <v>84.11</v>
+      </c>
+      <c r="C193" s="15">
+        <v>71</v>
+      </c>
+      <c r="D193" s="15">
+        <v>0.55142823332288127</v>
+      </c>
+      <c r="E193" s="15">
+        <v>1</v>
+      </c>
+      <c r="F193" s="15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194" s="15">
         <v>6.91</v>
       </c>
-      <c r="GL1">
+      <c r="B194" s="16">
+        <v>31.47</v>
+      </c>
+      <c r="C194" s="15">
+        <v>24.56</v>
+      </c>
+      <c r="D194" s="15">
+        <v>0.84435405319145762</v>
+      </c>
+      <c r="E194" s="15">
+        <v>1</v>
+      </c>
+      <c r="F194" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195" s="15">
         <v>3.509999999999998</v>
       </c>
-      <c r="GM1">
+      <c r="B195" s="16">
+        <v>20.95</v>
+      </c>
+      <c r="C195" s="15">
+        <v>17.440000000000001</v>
+      </c>
+      <c r="D195" s="15">
+        <v>7.0580157866368287E-2</v>
+      </c>
+      <c r="E195" s="15">
+        <v>1</v>
+      </c>
+      <c r="F195" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196" s="15">
         <v>15.650000000000034</v>
       </c>
-      <c r="GN1">
+      <c r="B196" s="16">
+        <v>316.55</v>
+      </c>
+      <c r="C196" s="15">
+        <v>300.89999999999998</v>
+      </c>
+      <c r="D196" s="15">
+        <v>0.87330803280429903</v>
+      </c>
+      <c r="E196" s="15">
+        <v>1</v>
+      </c>
+      <c r="F196" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197" s="15">
         <v>6.1400000000000006</v>
       </c>
-      <c r="GO1">
+      <c r="B197" s="16">
+        <v>73.58</v>
+      </c>
+      <c r="C197" s="15">
+        <v>67.44</v>
+      </c>
+      <c r="D197" s="15">
+        <v>0.46960850243050078</v>
+      </c>
+      <c r="E197" s="15">
+        <v>1</v>
+      </c>
+      <c r="F197" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198" s="15">
         <v>7.7099999999999937</v>
       </c>
-      <c r="GP1">
+      <c r="B198" s="16">
+        <v>105.16</v>
+      </c>
+      <c r="C198" s="15">
+        <v>97.45</v>
+      </c>
+      <c r="D198" s="15">
+        <v>0.74257220202627883</v>
+      </c>
+      <c r="E198" s="15">
+        <v>1</v>
+      </c>
+      <c r="F198" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199" s="15">
         <v>55.33</v>
       </c>
-      <c r="GQ1">
+      <c r="B199" s="16">
+        <v>168.32</v>
+      </c>
+      <c r="C199" s="15">
+        <v>112.99</v>
+      </c>
+      <c r="D199" s="15">
+        <v>0.55428205300289235</v>
+      </c>
+      <c r="E199" s="15">
+        <v>1</v>
+      </c>
+      <c r="F199" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200" s="15">
         <v>32.5</v>
       </c>
-      <c r="GR1">
+      <c r="B200" s="16">
+        <v>420.95</v>
+      </c>
+      <c r="C200" s="15">
+        <v>388.45</v>
+      </c>
+      <c r="D200" s="15">
+        <v>9.6903131502364959E-2</v>
+      </c>
+      <c r="E200" s="15">
+        <v>1</v>
+      </c>
+      <c r="F200" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201" s="15">
         <v>4.2600000000000051</v>
       </c>
-      <c r="GS1">
+      <c r="B201" s="16">
+        <v>84.11</v>
+      </c>
+      <c r="C201" s="15">
+        <v>79.849999999999994</v>
+      </c>
+      <c r="D201" s="15">
+        <v>0.72642493557209808</v>
+      </c>
+      <c r="E201" s="15">
+        <v>1</v>
+      </c>
+      <c r="F201" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202" s="15">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:201">
-      <c r="A2">
-        <v>1404</v>
-      </c>
-      <c r="B2">
-        <v>289.89999999999998</v>
-      </c>
-      <c r="C2">
-        <v>621</v>
-      </c>
-      <c r="D2">
-        <v>321</v>
-      </c>
-      <c r="E2">
-        <v>2630</v>
-      </c>
-      <c r="F2">
-        <v>230</v>
-      </c>
-      <c r="G2">
-        <v>90</v>
-      </c>
-      <c r="H2">
-        <v>623</v>
-      </c>
-      <c r="I2">
-        <v>420</v>
-      </c>
-      <c r="J2">
-        <v>41</v>
-      </c>
-      <c r="K2">
-        <v>228</v>
-      </c>
-      <c r="L2">
-        <v>110</v>
-      </c>
-      <c r="M2">
-        <v>135</v>
-      </c>
-      <c r="N2">
-        <v>768</v>
-      </c>
-      <c r="O2">
-        <v>698</v>
-      </c>
-      <c r="P2">
-        <v>2080</v>
-      </c>
-      <c r="Q2">
-        <v>1217</v>
-      </c>
-      <c r="R2">
-        <v>266</v>
-      </c>
-      <c r="S2">
-        <v>20.9</v>
-      </c>
-      <c r="T2">
-        <v>78</v>
-      </c>
-      <c r="U2">
-        <v>524</v>
-      </c>
-      <c r="V2">
-        <v>1420</v>
-      </c>
-      <c r="W2">
-        <v>265</v>
-      </c>
-      <c r="X2">
-        <v>450</v>
-      </c>
-      <c r="Y2">
-        <v>180</v>
-      </c>
-      <c r="Z2">
-        <v>320</v>
-      </c>
-      <c r="AA2">
-        <v>66</v>
-      </c>
-      <c r="AB2">
-        <v>848</v>
-      </c>
-      <c r="AC2">
-        <v>555</v>
-      </c>
-      <c r="AD2">
-        <v>250</v>
-      </c>
-      <c r="AE2">
-        <v>200</v>
-      </c>
-      <c r="AF2">
-        <v>301</v>
-      </c>
-      <c r="AG2">
-        <v>23</v>
-      </c>
-      <c r="AH2">
-        <v>396</v>
-      </c>
-      <c r="AI2">
-        <v>25</v>
-      </c>
-      <c r="AJ2">
-        <v>457</v>
-      </c>
-      <c r="AK2">
-        <v>1601</v>
-      </c>
-      <c r="AL2">
-        <v>111</v>
-      </c>
-      <c r="AM2">
-        <v>200</v>
-      </c>
-      <c r="AN2">
-        <v>293</v>
-      </c>
-      <c r="AO2">
-        <v>289</v>
-      </c>
-      <c r="AP2">
-        <v>1628</v>
-      </c>
-      <c r="AQ2">
-        <v>2794</v>
-      </c>
-      <c r="AR2">
-        <v>712</v>
-      </c>
-      <c r="AS2">
-        <v>523</v>
-      </c>
-      <c r="AT2">
-        <v>312</v>
-      </c>
-      <c r="AU2">
-        <v>62.35</v>
-      </c>
-      <c r="AV2">
-        <v>142</v>
-      </c>
-      <c r="AW2">
-        <v>487</v>
-      </c>
-      <c r="AX2">
-        <v>21.9</v>
-      </c>
-      <c r="AY2">
-        <v>120</v>
-      </c>
-      <c r="AZ2">
-        <v>2899</v>
-      </c>
-      <c r="BA2">
-        <v>789</v>
-      </c>
-      <c r="BB2">
-        <v>741</v>
-      </c>
-      <c r="BC2">
-        <v>229</v>
-      </c>
-      <c r="BD2">
-        <v>264</v>
-      </c>
-      <c r="BE2">
-        <v>300</v>
-      </c>
-      <c r="BF2">
-        <v>394</v>
-      </c>
-      <c r="BG2">
-        <v>179</v>
-      </c>
-      <c r="BH2">
-        <v>19.690000000000001</v>
-      </c>
-      <c r="BI2">
-        <v>1890.9</v>
-      </c>
-      <c r="BJ2">
-        <v>418</v>
-      </c>
-      <c r="BK2">
-        <v>111</v>
-      </c>
-      <c r="BL2">
-        <v>473</v>
-      </c>
-      <c r="BM2">
-        <v>325</v>
-      </c>
-      <c r="BN2">
-        <v>39</v>
-      </c>
-      <c r="BO2">
-        <v>452</v>
-      </c>
-      <c r="BP2">
-        <v>1425</v>
-      </c>
-      <c r="BQ2">
-        <v>288</v>
-      </c>
-      <c r="BR2">
-        <v>2936</v>
-      </c>
-      <c r="BS2">
-        <v>354</v>
-      </c>
-      <c r="BT2">
-        <v>85.9</v>
-      </c>
-      <c r="BU2">
-        <v>880</v>
-      </c>
-      <c r="BV2">
-        <v>266</v>
-      </c>
-      <c r="BW2">
-        <v>239</v>
-      </c>
-      <c r="BX2">
-        <v>535</v>
-      </c>
-      <c r="BY2">
-        <v>49</v>
-      </c>
-      <c r="BZ2">
-        <v>21</v>
-      </c>
-      <c r="CA2">
-        <v>117</v>
-      </c>
-      <c r="CB2">
-        <v>45</v>
-      </c>
-      <c r="CC2">
-        <v>279</v>
-      </c>
-      <c r="CD2">
-        <v>499</v>
-      </c>
-      <c r="CE2">
-        <v>370</v>
-      </c>
-      <c r="CF2">
-        <v>294</v>
-      </c>
-      <c r="CG2">
-        <v>369</v>
-      </c>
-      <c r="CH2">
-        <v>2203</v>
-      </c>
-      <c r="CI2">
-        <v>212</v>
-      </c>
-      <c r="CJ2">
-        <v>899</v>
-      </c>
-      <c r="CK2">
-        <v>412</v>
-      </c>
-      <c r="CL2">
-        <v>659</v>
-      </c>
-      <c r="CM2">
-        <v>431</v>
-      </c>
-      <c r="CN2">
-        <v>41</v>
-      </c>
-      <c r="CO2">
-        <v>178</v>
-      </c>
-      <c r="CP2">
-        <v>78</v>
-      </c>
-      <c r="CQ2">
-        <v>850</v>
-      </c>
-      <c r="CR2">
-        <v>176</v>
-      </c>
-      <c r="CS2">
-        <v>309.89999999999998</v>
-      </c>
-      <c r="CT2">
-        <v>94.3</v>
-      </c>
-      <c r="CU2">
-        <v>132</v>
-      </c>
-      <c r="CV2">
-        <v>68.540000000000006</v>
-      </c>
-      <c r="CW2">
-        <v>40</v>
-      </c>
-      <c r="CX2">
-        <v>214</v>
-      </c>
-      <c r="CY2">
-        <v>889</v>
-      </c>
-      <c r="CZ2">
-        <v>87.9</v>
-      </c>
-      <c r="DA2">
-        <v>1</v>
-      </c>
-      <c r="DB2">
-        <v>165</v>
-      </c>
-      <c r="DC2">
-        <v>619.87</v>
-      </c>
-      <c r="DD2">
-        <v>98.54</v>
-      </c>
-      <c r="DE2">
-        <v>210</v>
-      </c>
-      <c r="DF2">
-        <v>601.54</v>
-      </c>
-      <c r="DG2">
-        <v>99.9</v>
-      </c>
-      <c r="DH2">
-        <v>110.22</v>
-      </c>
-      <c r="DI2">
-        <v>60.11</v>
-      </c>
-      <c r="DJ2">
-        <v>105.41</v>
-      </c>
-      <c r="DK2">
-        <v>95.55</v>
-      </c>
-      <c r="DL2">
-        <v>1336</v>
-      </c>
-      <c r="DM2">
-        <v>132</v>
-      </c>
-      <c r="DN2">
-        <v>98.9</v>
-      </c>
-      <c r="DO2">
-        <v>10.9</v>
-      </c>
-      <c r="DP2">
-        <v>89.9</v>
-      </c>
-      <c r="DQ2">
-        <v>189.9</v>
-      </c>
-      <c r="DR2">
-        <v>89.9</v>
-      </c>
-      <c r="DS2">
-        <v>219.9</v>
-      </c>
-      <c r="DT2">
-        <v>201.11</v>
-      </c>
-      <c r="DU2">
-        <v>110</v>
-      </c>
-      <c r="DV2">
-        <v>899</v>
-      </c>
-      <c r="DW2">
-        <v>39</v>
-      </c>
-      <c r="DX2">
-        <v>109</v>
-      </c>
-      <c r="DY2">
-        <v>321</v>
-      </c>
-      <c r="DZ2">
-        <v>399</v>
-      </c>
-      <c r="EA2">
-        <v>108</v>
-      </c>
-      <c r="EB2">
-        <v>110</v>
-      </c>
-      <c r="EC2">
-        <v>230</v>
-      </c>
-      <c r="ED2">
-        <v>389</v>
-      </c>
-      <c r="EE2">
-        <v>999</v>
-      </c>
-      <c r="EF2">
-        <v>98</v>
-      </c>
-      <c r="EG2">
-        <v>319</v>
-      </c>
-      <c r="EH2">
-        <v>199</v>
-      </c>
-      <c r="EI2">
-        <v>312</v>
-      </c>
-      <c r="EJ2">
-        <v>544</v>
-      </c>
-      <c r="EK2">
-        <v>209</v>
-      </c>
-      <c r="EL2">
-        <v>59.9</v>
-      </c>
-      <c r="EM2">
-        <v>49</v>
-      </c>
-      <c r="EN2">
-        <v>189</v>
-      </c>
-      <c r="EO2">
-        <v>777</v>
-      </c>
-      <c r="EP2">
-        <v>123</v>
-      </c>
-      <c r="EQ2">
-        <v>359</v>
-      </c>
-      <c r="ER2">
-        <v>36</v>
-      </c>
-      <c r="ES2">
-        <v>98</v>
-      </c>
-      <c r="ET2">
-        <v>68</v>
-      </c>
-      <c r="EU2">
-        <v>188</v>
-      </c>
-      <c r="EV2">
-        <v>22</v>
-      </c>
-      <c r="EW2">
-        <v>745</v>
-      </c>
-      <c r="EX2">
-        <v>655</v>
-      </c>
-      <c r="EY2">
-        <v>45</v>
-      </c>
-      <c r="EZ2">
-        <v>355</v>
-      </c>
-      <c r="FA2">
-        <v>1455</v>
-      </c>
-      <c r="FB2">
-        <v>1099</v>
-      </c>
-      <c r="FC2">
-        <v>599</v>
-      </c>
-      <c r="FD2">
-        <v>288</v>
-      </c>
-      <c r="FE2">
-        <v>256</v>
-      </c>
-      <c r="FF2">
-        <v>1741</v>
-      </c>
-      <c r="FG2">
-        <v>13529.29</v>
-      </c>
-      <c r="FH2">
-        <v>9550.9</v>
-      </c>
-      <c r="FI2">
-        <v>468.9</v>
-      </c>
-      <c r="FJ2">
-        <v>2054</v>
-      </c>
-      <c r="FK2">
-        <v>299.7</v>
-      </c>
-      <c r="FL2">
-        <v>254.54</v>
-      </c>
-      <c r="FM2">
-        <v>90</v>
-      </c>
-      <c r="FN2">
-        <v>254</v>
-      </c>
-      <c r="FO2">
-        <v>998</v>
-      </c>
-      <c r="FP2">
-        <v>68.599999999999994</v>
-      </c>
-      <c r="FQ2">
-        <v>2090.9</v>
-      </c>
-      <c r="FR2">
-        <v>1350</v>
-      </c>
-      <c r="FS2">
-        <v>855</v>
-      </c>
-      <c r="FT2">
-        <v>1845</v>
-      </c>
-      <c r="FU2">
-        <v>6855.6</v>
-      </c>
-      <c r="FV2">
-        <v>1090.5999999999999</v>
-      </c>
-      <c r="FW2">
-        <v>110.11</v>
-      </c>
-      <c r="FX2">
-        <v>133</v>
-      </c>
-      <c r="FY2">
-        <v>421</v>
-      </c>
-      <c r="FZ2">
-        <v>6723</v>
-      </c>
-      <c r="GA2">
-        <v>123.5</v>
-      </c>
-      <c r="GB2">
-        <v>399.6</v>
-      </c>
-      <c r="GC2">
-        <v>1889</v>
-      </c>
-      <c r="GD2">
-        <v>3812</v>
-      </c>
-      <c r="GE2">
-        <v>3758</v>
-      </c>
-      <c r="GF2">
-        <v>6254.44</v>
-      </c>
-      <c r="GG2">
-        <v>7254.9</v>
-      </c>
-      <c r="GH2">
-        <v>2899.9</v>
-      </c>
-      <c r="GI2">
-        <v>6233.9</v>
-      </c>
-      <c r="GJ2">
-        <v>71</v>
-      </c>
-      <c r="GK2">
-        <v>24.56</v>
-      </c>
-      <c r="GL2">
-        <v>17.440000000000001</v>
-      </c>
-      <c r="GM2">
-        <v>300.89999999999998</v>
-      </c>
-      <c r="GN2">
-        <v>67.44</v>
-      </c>
-      <c r="GO2">
-        <v>97.45</v>
-      </c>
-      <c r="GP2">
-        <v>112.99</v>
-      </c>
-      <c r="GQ2">
-        <v>388.45</v>
-      </c>
-      <c r="GR2">
-        <v>79.849999999999994</v>
-      </c>
-      <c r="GS2">
+      <c r="B202" s="16">
+        <v>39.9</v>
+      </c>
+      <c r="C202" s="15">
         <v>31.9</v>
       </c>
-    </row>
-    <row r="3" spans="1:201">
-      <c r="A3">
-        <v>0.37435627727959975</v>
-      </c>
-      <c r="B3">
-        <v>0.65772187269598403</v>
-      </c>
-      <c r="C3">
-        <v>0.74476347209457983</v>
-      </c>
-      <c r="D3">
-        <v>0.97204479548740275</v>
-      </c>
-      <c r="E3">
-        <v>0.55646542716220238</v>
-      </c>
-      <c r="F3">
-        <v>0.66092711417479266</v>
-      </c>
-      <c r="G3">
-        <v>4.6872576280720946E-3</v>
-      </c>
-      <c r="H3">
-        <v>0.40497182455440872</v>
-      </c>
-      <c r="I3">
-        <v>1.2091686915822852E-2</v>
-      </c>
-      <c r="J3">
-        <v>0.43182513138021894</v>
-      </c>
-      <c r="K3">
-        <v>0.22202538318550058</v>
-      </c>
-      <c r="L3">
-        <v>0.35532193889820685</v>
-      </c>
-      <c r="M3">
-        <v>0.58651703777100905</v>
-      </c>
-      <c r="N3">
-        <v>0.85121715328549918</v>
-      </c>
-      <c r="O3">
-        <v>0.55524321522139808</v>
-      </c>
-      <c r="P3">
-        <v>0.64325251227669911</v>
-      </c>
-      <c r="Q3">
-        <v>0.92059063611164615</v>
-      </c>
-      <c r="R3">
-        <v>0.31607490648787384</v>
-      </c>
-      <c r="S3">
-        <v>0.26479758085770155</v>
-      </c>
-      <c r="T3">
-        <v>0.90933385889033647</v>
-      </c>
-      <c r="U3">
-        <v>2.1883777092957968E-2</v>
-      </c>
-      <c r="V3">
-        <v>4.7717972427888666E-3</v>
-      </c>
-      <c r="W3">
-        <v>0.92242550865396178</v>
-      </c>
-      <c r="X3">
-        <v>0.1528529873056611</v>
-      </c>
-      <c r="Y3">
-        <v>7.5211515410322227E-2</v>
-      </c>
-      <c r="Z3">
-        <v>0.54116580812649029</v>
-      </c>
-      <c r="AA3">
-        <v>0.35972516947059929</v>
-      </c>
-      <c r="AB3">
-        <v>0.16697557313552025</v>
-      </c>
-      <c r="AC3">
-        <v>0.38033480713538403</v>
-      </c>
-      <c r="AD3">
-        <v>0.93420145289187517</v>
-      </c>
-      <c r="AE3">
-        <v>0.67938821601038524</v>
-      </c>
-      <c r="AF3">
-        <v>0.37279985268813054</v>
-      </c>
-      <c r="AG3">
-        <v>0.28721126173464817</v>
-      </c>
-      <c r="AH3">
-        <v>0.48971797509536197</v>
-      </c>
-      <c r="AI3">
-        <v>0.98107866182766779</v>
-      </c>
-      <c r="AJ3">
-        <v>0.70198731573743156</v>
-      </c>
-      <c r="AK3">
-        <v>0.35878466760556094</v>
-      </c>
-      <c r="AL3">
-        <v>0.33264491317580847</v>
-      </c>
-      <c r="AM3">
-        <v>0.27114132084728404</v>
-      </c>
-      <c r="AN3">
-        <v>0.65691583521087737</v>
-      </c>
-      <c r="AO3">
-        <v>0.48568505571280429</v>
-      </c>
-      <c r="AP3">
-        <v>0.4302742059665956</v>
-      </c>
-      <c r="AQ3">
-        <v>0.2423432922944595</v>
-      </c>
-      <c r="AR3">
-        <v>0.33306278816622048</v>
-      </c>
-      <c r="AS3">
-        <v>0.54748919502617399</v>
-      </c>
-      <c r="AT3">
-        <v>0.410756325428977</v>
-      </c>
-      <c r="AU3">
-        <v>0.97548292854926721</v>
-      </c>
-      <c r="AV3">
-        <v>0.17262274247193177</v>
-      </c>
-      <c r="AW3">
-        <v>0.96423934539629064</v>
-      </c>
-      <c r="AX3">
-        <v>0.10446518257511894</v>
-      </c>
-      <c r="AY3">
-        <v>0.29468729601917343</v>
-      </c>
-      <c r="AZ3">
-        <v>0.62031335178712299</v>
-      </c>
-      <c r="BA3">
-        <v>1.6974912799541886E-2</v>
-      </c>
-      <c r="BB3">
-        <v>0.53613207481395186</v>
-      </c>
-      <c r="BC3">
-        <v>7.2829764865703472E-2</v>
-      </c>
-      <c r="BD3">
-        <v>0.99980204426695318</v>
-      </c>
-      <c r="BE3">
-        <v>0.54236962581819836</v>
-      </c>
-      <c r="BF3">
-        <v>0.11895692055911911</v>
-      </c>
-      <c r="BG3">
-        <v>0.63338741808223842</v>
-      </c>
-      <c r="BH3">
-        <v>0.20454418429275367</v>
-      </c>
-      <c r="BI3">
-        <v>0.35681910907804615</v>
-      </c>
-      <c r="BJ3">
-        <v>0.78958205983352381</v>
-      </c>
-      <c r="BK3">
-        <v>0.57726052979594766</v>
-      </c>
-      <c r="BL3">
-        <v>0.56717514067499375</v>
-      </c>
-      <c r="BM3">
-        <v>0.83748277252608982</v>
-      </c>
-      <c r="BN3">
-        <v>0.41551118835232825</v>
-      </c>
-      <c r="BO3">
-        <v>0.80307140156855839</v>
-      </c>
-      <c r="BP3">
-        <v>0.27337410112619476</v>
-      </c>
-      <c r="BQ3">
-        <v>0.72728084035323082</v>
-      </c>
-      <c r="BR3">
-        <v>0.66923845113457558</v>
-      </c>
-      <c r="BS3">
-        <v>0.49304727217535349</v>
-      </c>
-      <c r="BT3">
-        <v>0.65924011323225673</v>
-      </c>
-      <c r="BU3">
-        <v>0.50994161562175289</v>
-      </c>
-      <c r="BV3">
-        <v>0.41871293269529009</v>
-      </c>
-      <c r="BW3">
-        <v>0.70748538880615275</v>
-      </c>
-      <c r="BX3">
-        <v>0.4390522107070578</v>
-      </c>
-      <c r="BY3">
-        <v>0.12283817451230317</v>
-      </c>
-      <c r="BZ3">
-        <v>0.99341843775935934</v>
-      </c>
-      <c r="CA3">
-        <v>0.17126066318704458</v>
-      </c>
-      <c r="CB3">
-        <v>0.12599830720459027</v>
-      </c>
-      <c r="CC3">
-        <v>0.60614366925169494</v>
-      </c>
-      <c r="CD3">
-        <v>0.8446847656683858</v>
-      </c>
-      <c r="CE3">
-        <v>0.95960507325428257</v>
-      </c>
-      <c r="CF3">
-        <v>0.55005505346022177</v>
-      </c>
-      <c r="CG3">
-        <v>0.59624931494781863</v>
-      </c>
-      <c r="CH3">
-        <v>0.53927573319220834</v>
-      </c>
-      <c r="CI3">
-        <v>0.99620146653512121</v>
-      </c>
-      <c r="CJ3">
-        <v>0.36318821947427926</v>
-      </c>
-      <c r="CK3">
-        <v>0.23395011200014126</v>
-      </c>
-      <c r="CL3">
-        <v>6.1177025384161143E-2</v>
-      </c>
-      <c r="CM3">
-        <v>0.35244833156041033</v>
-      </c>
-      <c r="CN3">
-        <v>0.43567194450856006</v>
-      </c>
-      <c r="CO3">
-        <v>0.82410569993518556</v>
-      </c>
-      <c r="CP3">
-        <v>0.81326673731696286</v>
-      </c>
-      <c r="CQ3">
-        <v>0.31668689488799873</v>
-      </c>
-      <c r="CR3">
-        <v>0.64888325365099486</v>
-      </c>
-      <c r="CS3">
-        <v>0.70289108646096399</v>
-      </c>
-      <c r="CT3">
-        <v>0.59092200366419079</v>
-      </c>
-      <c r="CU3">
-        <v>0.95759604789136077</v>
-      </c>
-      <c r="CV3">
-        <v>0.38994870806975013</v>
-      </c>
-      <c r="CW3">
-        <v>0.45977027889767486</v>
-      </c>
-      <c r="CX3">
-        <v>0.28326679249671805</v>
-      </c>
-      <c r="CY3">
-        <v>0.78307046612831666</v>
-      </c>
-      <c r="CZ3">
-        <v>0.12059672002108623</v>
-      </c>
-      <c r="DA3">
-        <v>0.7303885477458183</v>
-      </c>
-      <c r="DB3">
-        <v>0.12287232277506044</v>
-      </c>
-      <c r="DC3">
-        <v>0.25559994902008787</v>
-      </c>
-      <c r="DD3">
-        <v>0.68355745493296449</v>
-      </c>
-      <c r="DE3">
-        <v>8.3797410812516127E-3</v>
-      </c>
-      <c r="DF3">
-        <v>0.33090227598372868</v>
-      </c>
-      <c r="DG3">
-        <v>0.10718755672763547</v>
-      </c>
-      <c r="DH3">
-        <v>0.57978466148958074</v>
-      </c>
-      <c r="DI3">
-        <v>0.90265861480003029</v>
-      </c>
-      <c r="DJ3">
-        <v>0.53084282265619565</v>
-      </c>
-      <c r="DK3">
-        <v>0.9835969509751763</v>
-      </c>
-      <c r="DL3">
-        <v>0.55583064152065376</v>
-      </c>
-      <c r="DM3">
-        <v>0.83497926927273913</v>
-      </c>
-      <c r="DN3">
-        <v>0.40807814168381062</v>
-      </c>
-      <c r="DO3">
-        <v>0.26601648664295985</v>
-      </c>
-      <c r="DP3">
-        <v>0.83965923564924971</v>
-      </c>
-      <c r="DQ3">
-        <v>0.75911300703461482</v>
-      </c>
-      <c r="DR3">
-        <v>0.57927152387334879</v>
-      </c>
-      <c r="DS3">
-        <v>0.14553870700047367</v>
-      </c>
-      <c r="DT3">
-        <v>0.81549994368742518</v>
-      </c>
-      <c r="DU3">
-        <v>0.99796615219857876</v>
-      </c>
-      <c r="DV3">
-        <v>3.8004366557549241E-2</v>
-      </c>
-      <c r="DW3">
-        <v>0.17381854717253031</v>
-      </c>
-      <c r="DX3">
-        <v>0.44645183712314307</v>
-      </c>
-      <c r="DY3">
-        <v>0.60695660792448192</v>
-      </c>
-      <c r="DZ3">
-        <v>0.66564481645400497</v>
-      </c>
-      <c r="EA3">
-        <v>0.40908339931815685</v>
-      </c>
-      <c r="EB3">
-        <v>0.68999907899953306</v>
-      </c>
-      <c r="EC3">
-        <v>0.12282170870538323</v>
-      </c>
-      <c r="ED3">
-        <v>0.80723336045860739</v>
-      </c>
-      <c r="EE3">
-        <v>0.2177287517996106</v>
-      </c>
-      <c r="EF3">
-        <v>0.35384775392537704</v>
-      </c>
-      <c r="EG3">
-        <v>0.15506215395789014</v>
-      </c>
-      <c r="EH3">
-        <v>0.50338757926603328</v>
-      </c>
-      <c r="EI3">
-        <v>0.68924734980024183</v>
-      </c>
-      <c r="EJ3">
-        <v>0.99240706981864568</v>
-      </c>
-      <c r="EK3">
-        <v>0.51167687024452169</v>
-      </c>
-      <c r="EL3">
-        <v>0.77415332202643228</v>
-      </c>
-      <c r="EM3">
-        <v>0.76746365232341707</v>
-      </c>
-      <c r="EN3">
-        <v>0.14702773803831215</v>
-      </c>
-      <c r="EO3">
-        <v>0.48382306153356014</v>
-      </c>
-      <c r="EP3">
-        <v>0.53665305144812925</v>
-      </c>
-      <c r="EQ3">
-        <v>0.40011460657060249</v>
-      </c>
-      <c r="ER3">
-        <v>0.10868631861085021</v>
-      </c>
-      <c r="ES3">
-        <v>0.14917643054518237</v>
-      </c>
-      <c r="ET3">
-        <v>0.18839140129698639</v>
-      </c>
-      <c r="EU3">
-        <v>0.74285646885268997</v>
-      </c>
-      <c r="EV3">
-        <v>0.76453897192560316</v>
-      </c>
-      <c r="EW3">
-        <v>0.33925985333735909</v>
-      </c>
-      <c r="EX3">
-        <v>0.7373421852548413</v>
-      </c>
-      <c r="EY3">
-        <v>0.56337671972724723</v>
-      </c>
-      <c r="EZ3">
-        <v>0.57172142491387545</v>
-      </c>
-      <c r="FA3">
-        <v>0.27032973510139491</v>
-      </c>
-      <c r="FB3">
-        <v>0.70434455074598246</v>
-      </c>
-      <c r="FC3">
-        <v>0.44904276375951413</v>
-      </c>
-      <c r="FD3">
-        <v>2.3051012041199637E-2</v>
-      </c>
-      <c r="FE3">
-        <v>0.29843237736546369</v>
-      </c>
-      <c r="FF3">
-        <v>0.5456226779487966</v>
-      </c>
-      <c r="FG3">
-        <v>0.35276093457735946</v>
-      </c>
-      <c r="FH3">
-        <v>0.21557464620660838</v>
-      </c>
-      <c r="FI3">
-        <v>0.70599992336388173</v>
-      </c>
-      <c r="FJ3">
-        <v>0.70864152152222615</v>
-      </c>
-      <c r="FK3">
-        <v>0.60706235820092669</v>
-      </c>
-      <c r="FL3">
-        <v>4.5847595053781665E-2</v>
-      </c>
-      <c r="FM3">
-        <v>0.94231381488216548</v>
-      </c>
-      <c r="FN3">
-        <v>0.68002756012646537</v>
-      </c>
-      <c r="FO3">
-        <v>0.89289303881800641</v>
-      </c>
-      <c r="FP3">
-        <v>0.73392797668576415</v>
-      </c>
-      <c r="FQ3">
-        <v>0.7806821887825236</v>
-      </c>
-      <c r="FR3">
-        <v>0.7508529371184155</v>
-      </c>
-      <c r="FS3">
-        <v>0.3661619861350448</v>
-      </c>
-      <c r="FT3">
-        <v>0.8423142005844062</v>
-      </c>
-      <c r="FU3">
-        <v>0.25599817996085161</v>
-      </c>
-      <c r="FV3">
-        <v>0.34953900030181706</v>
-      </c>
-      <c r="FW3">
-        <v>0.15908945405392583</v>
-      </c>
-      <c r="FX3">
-        <v>0.57042857456920704</v>
-      </c>
-      <c r="FY3">
-        <v>0.46822114736432308</v>
-      </c>
-      <c r="FZ3">
-        <v>0.68335774228448354</v>
-      </c>
-      <c r="GA3">
-        <v>5.6598560450001667E-2</v>
-      </c>
-      <c r="GB3">
-        <v>0.30121819060832544</v>
-      </c>
-      <c r="GC3">
-        <v>0.29150959881495198</v>
-      </c>
-      <c r="GD3">
-        <v>0.25289204183440994</v>
-      </c>
-      <c r="GE3">
-        <v>0.93179111886824217</v>
-      </c>
-      <c r="GF3">
-        <v>0.11145816701241285</v>
-      </c>
-      <c r="GG3">
-        <v>0.62674560042435412</v>
-      </c>
-      <c r="GH3">
-        <v>0.16146008407881585</v>
-      </c>
-      <c r="GI3">
-        <v>0.79765622226735644</v>
-      </c>
-      <c r="GJ3">
-        <v>0.55142823332288127</v>
-      </c>
-      <c r="GK3">
-        <v>0.84435405319145762</v>
-      </c>
-      <c r="GL3">
-        <v>7.0580157866368287E-2</v>
-      </c>
-      <c r="GM3">
-        <v>0.87330803280429903</v>
-      </c>
-      <c r="GN3">
-        <v>0.46960850243050078</v>
-      </c>
-      <c r="GO3">
-        <v>0.74257220202627883</v>
-      </c>
-      <c r="GP3">
-        <v>0.55428205300289235</v>
-      </c>
-      <c r="GQ3">
-        <v>9.6903131502364959E-2</v>
-      </c>
-      <c r="GR3">
-        <v>0.72642493557209808</v>
-      </c>
-      <c r="GS3">
+      <c r="D202" s="15">
         <v>0.5946007013280904</v>
       </c>
-    </row>
-    <row r="4" spans="1:201">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>1</v>
-      </c>
-      <c r="R4">
-        <v>1</v>
-      </c>
-      <c r="S4">
-        <v>1</v>
-      </c>
-      <c r="T4">
-        <v>1</v>
-      </c>
-      <c r="U4">
-        <v>1</v>
-      </c>
-      <c r="V4">
-        <v>1</v>
-      </c>
-      <c r="W4">
-        <v>1</v>
-      </c>
-      <c r="X4">
-        <v>1</v>
-      </c>
-      <c r="Y4">
-        <v>1</v>
-      </c>
-      <c r="Z4">
-        <v>1</v>
-      </c>
-      <c r="AA4">
-        <v>1</v>
-      </c>
-      <c r="AB4">
-        <v>1</v>
-      </c>
-      <c r="AC4">
-        <v>1</v>
-      </c>
-      <c r="AD4">
-        <v>1</v>
-      </c>
-      <c r="AE4">
-        <v>1</v>
-      </c>
-      <c r="AF4">
-        <v>1</v>
-      </c>
-      <c r="AG4">
-        <v>1</v>
-      </c>
-      <c r="AH4">
-        <v>1</v>
-      </c>
-      <c r="AI4">
-        <v>1</v>
-      </c>
-      <c r="AJ4">
-        <v>1</v>
-      </c>
-      <c r="AK4">
-        <v>1</v>
-      </c>
-      <c r="AL4">
-        <v>1</v>
-      </c>
-      <c r="AM4">
-        <v>1</v>
-      </c>
-      <c r="AN4">
-        <v>1</v>
-      </c>
-      <c r="AO4">
-        <v>1</v>
-      </c>
-      <c r="AP4">
-        <v>1</v>
-      </c>
-      <c r="AQ4">
-        <v>1</v>
-      </c>
-      <c r="AR4">
-        <v>1</v>
-      </c>
-      <c r="AS4">
-        <v>1</v>
-      </c>
-      <c r="AT4">
-        <v>1</v>
-      </c>
-      <c r="AU4">
-        <v>1</v>
-      </c>
-      <c r="AV4">
-        <v>1</v>
-      </c>
-      <c r="AW4">
-        <v>1</v>
-      </c>
-      <c r="AX4">
-        <v>1</v>
-      </c>
-      <c r="AY4">
-        <v>1</v>
-      </c>
-      <c r="AZ4">
-        <v>1</v>
-      </c>
-      <c r="BA4">
-        <v>1</v>
-      </c>
-      <c r="BB4">
-        <v>1</v>
-      </c>
-      <c r="BC4">
-        <v>1</v>
-      </c>
-      <c r="BD4">
-        <v>1</v>
-      </c>
-      <c r="BE4">
-        <v>1</v>
-      </c>
-      <c r="BF4">
-        <v>1</v>
-      </c>
-      <c r="BG4">
-        <v>1</v>
-      </c>
-      <c r="BH4">
-        <v>1</v>
-      </c>
-      <c r="BI4">
-        <v>1</v>
-      </c>
-      <c r="BJ4">
-        <v>1</v>
-      </c>
-      <c r="BK4">
-        <v>1</v>
-      </c>
-      <c r="BL4">
-        <v>1</v>
-      </c>
-      <c r="BM4">
-        <v>1</v>
-      </c>
-      <c r="BN4">
-        <v>1</v>
-      </c>
-      <c r="BO4">
-        <v>1</v>
-      </c>
-      <c r="BP4">
-        <v>1</v>
-      </c>
-      <c r="BQ4">
-        <v>1</v>
-      </c>
-      <c r="BR4">
-        <v>1</v>
-      </c>
-      <c r="BS4">
-        <v>1</v>
-      </c>
-      <c r="BT4">
-        <v>1</v>
-      </c>
-      <c r="BU4">
-        <v>1</v>
-      </c>
-      <c r="BV4">
-        <v>1</v>
-      </c>
-      <c r="BW4">
-        <v>1</v>
-      </c>
-      <c r="BX4">
-        <v>1</v>
-      </c>
-      <c r="BY4">
-        <v>1</v>
-      </c>
-      <c r="BZ4">
-        <v>1</v>
-      </c>
-      <c r="CA4">
-        <v>1</v>
-      </c>
-      <c r="CB4">
-        <v>1</v>
-      </c>
-      <c r="CC4">
-        <v>1</v>
-      </c>
-      <c r="CD4">
-        <v>1</v>
-      </c>
-      <c r="CE4">
-        <v>1</v>
-      </c>
-      <c r="CF4">
-        <v>1</v>
-      </c>
-      <c r="CG4">
-        <v>1</v>
-      </c>
-      <c r="CH4">
-        <v>1</v>
-      </c>
-      <c r="CI4">
-        <v>1</v>
-      </c>
-      <c r="CJ4">
-        <v>1</v>
-      </c>
-      <c r="CK4">
-        <v>1</v>
-      </c>
-      <c r="CL4">
-        <v>1</v>
-      </c>
-      <c r="CM4">
-        <v>1</v>
-      </c>
-      <c r="CN4">
-        <v>1</v>
-      </c>
-      <c r="CO4">
-        <v>1</v>
-      </c>
-      <c r="CP4">
-        <v>1</v>
-      </c>
-      <c r="CQ4">
-        <v>1</v>
-      </c>
-      <c r="CR4">
-        <v>1</v>
-      </c>
-      <c r="CS4">
-        <v>1</v>
-      </c>
-      <c r="CT4">
-        <v>1</v>
-      </c>
-      <c r="CU4">
-        <v>1</v>
-      </c>
-      <c r="CV4">
-        <v>1</v>
-      </c>
-      <c r="CW4">
-        <v>1</v>
-      </c>
-      <c r="CX4">
-        <v>1</v>
-      </c>
-      <c r="CY4">
-        <v>1</v>
-      </c>
-      <c r="CZ4">
-        <v>1</v>
-      </c>
-      <c r="DA4">
-        <v>1</v>
-      </c>
-      <c r="DB4">
-        <v>1</v>
-      </c>
-      <c r="DC4">
-        <v>1</v>
-      </c>
-      <c r="DD4">
-        <v>1</v>
-      </c>
-      <c r="DE4">
-        <v>1</v>
-      </c>
-      <c r="DF4">
-        <v>1</v>
-      </c>
-      <c r="DG4">
-        <v>1</v>
-      </c>
-      <c r="DH4">
-        <v>1</v>
-      </c>
-      <c r="DI4">
-        <v>1</v>
-      </c>
-      <c r="DJ4">
-        <v>1</v>
-      </c>
-      <c r="DK4">
-        <v>1</v>
-      </c>
-      <c r="DL4">
-        <v>1</v>
-      </c>
-      <c r="DM4">
-        <v>1</v>
-      </c>
-      <c r="DN4">
-        <v>1</v>
-      </c>
-      <c r="DO4">
-        <v>1</v>
-      </c>
-      <c r="DP4">
-        <v>1</v>
-      </c>
-      <c r="DQ4">
-        <v>1</v>
-      </c>
-      <c r="DR4">
-        <v>1</v>
-      </c>
-      <c r="DS4">
-        <v>1</v>
-      </c>
-      <c r="DT4">
-        <v>1</v>
-      </c>
-      <c r="DU4">
-        <v>1</v>
-      </c>
-      <c r="DV4">
-        <v>1</v>
-      </c>
-      <c r="DW4">
-        <v>1</v>
-      </c>
-      <c r="DX4">
-        <v>1</v>
-      </c>
-      <c r="DY4">
-        <v>1</v>
-      </c>
-      <c r="DZ4">
-        <v>1</v>
-      </c>
-      <c r="EA4">
-        <v>1</v>
-      </c>
-      <c r="EB4">
-        <v>1</v>
-      </c>
-      <c r="EC4">
-        <v>1</v>
-      </c>
-      <c r="ED4">
-        <v>1</v>
-      </c>
-      <c r="EE4">
-        <v>1</v>
-      </c>
-      <c r="EF4">
-        <v>1</v>
-      </c>
-      <c r="EG4">
-        <v>1</v>
-      </c>
-      <c r="EH4">
-        <v>1</v>
-      </c>
-      <c r="EI4">
-        <v>1</v>
-      </c>
-      <c r="EJ4">
-        <v>1</v>
-      </c>
-      <c r="EK4">
-        <v>1</v>
-      </c>
-      <c r="EL4">
-        <v>1</v>
-      </c>
-      <c r="EM4">
-        <v>1</v>
-      </c>
-      <c r="EN4">
-        <v>1</v>
-      </c>
-      <c r="EO4">
-        <v>1</v>
-      </c>
-      <c r="EP4">
-        <v>1</v>
-      </c>
-      <c r="EQ4">
-        <v>1</v>
-      </c>
-      <c r="ER4">
-        <v>1</v>
-      </c>
-      <c r="ES4">
-        <v>1</v>
-      </c>
-      <c r="ET4">
-        <v>1</v>
-      </c>
-      <c r="EU4">
-        <v>1</v>
-      </c>
-      <c r="EV4">
-        <v>1</v>
-      </c>
-      <c r="EW4">
-        <v>1</v>
-      </c>
-      <c r="EX4">
-        <v>1</v>
-      </c>
-      <c r="EY4">
-        <v>1</v>
-      </c>
-      <c r="EZ4">
-        <v>1</v>
-      </c>
-      <c r="FA4">
-        <v>1</v>
-      </c>
-      <c r="FB4">
-        <v>1</v>
-      </c>
-      <c r="FC4">
-        <v>1</v>
-      </c>
-      <c r="FD4">
-        <v>1</v>
-      </c>
-      <c r="FE4">
-        <v>1</v>
-      </c>
-      <c r="FF4">
-        <v>1</v>
-      </c>
-      <c r="FG4">
-        <v>1</v>
-      </c>
-      <c r="FH4">
-        <v>1</v>
-      </c>
-      <c r="FI4">
-        <v>1</v>
-      </c>
-      <c r="FJ4">
-        <v>1</v>
-      </c>
-      <c r="FK4">
-        <v>1</v>
-      </c>
-      <c r="FL4">
-        <v>1</v>
-      </c>
-      <c r="FM4">
-        <v>1</v>
-      </c>
-      <c r="FN4">
-        <v>1</v>
-      </c>
-      <c r="FO4">
-        <v>1</v>
-      </c>
-      <c r="FP4">
-        <v>1</v>
-      </c>
-      <c r="FQ4">
-        <v>1</v>
-      </c>
-      <c r="FR4">
-        <v>1</v>
-      </c>
-      <c r="FS4">
-        <v>1</v>
-      </c>
-      <c r="FT4">
-        <v>1</v>
-      </c>
-      <c r="FU4">
-        <v>1</v>
-      </c>
-      <c r="FV4">
-        <v>1</v>
-      </c>
-      <c r="FW4">
-        <v>1</v>
-      </c>
-      <c r="FX4">
-        <v>1</v>
-      </c>
-      <c r="FY4">
-        <v>1</v>
-      </c>
-      <c r="FZ4">
-        <v>1</v>
-      </c>
-      <c r="GA4">
-        <v>1</v>
-      </c>
-      <c r="GB4">
-        <v>1</v>
-      </c>
-      <c r="GC4">
-        <v>1</v>
-      </c>
-      <c r="GD4">
-        <v>1</v>
-      </c>
-      <c r="GE4">
-        <v>1</v>
-      </c>
-      <c r="GF4">
-        <v>1</v>
-      </c>
-      <c r="GG4">
-        <v>1</v>
-      </c>
-      <c r="GH4">
-        <v>1</v>
-      </c>
-      <c r="GI4">
-        <v>1</v>
-      </c>
-      <c r="GJ4">
-        <v>1</v>
-      </c>
-      <c r="GK4">
-        <v>1</v>
-      </c>
-      <c r="GL4">
-        <v>1</v>
-      </c>
-      <c r="GM4">
-        <v>1</v>
-      </c>
-      <c r="GN4">
-        <v>1</v>
-      </c>
-      <c r="GO4">
-        <v>1</v>
-      </c>
-      <c r="GP4">
-        <v>1</v>
-      </c>
-      <c r="GQ4">
-        <v>1</v>
-      </c>
-      <c r="GR4">
-        <v>1</v>
-      </c>
-      <c r="GS4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:201">
-      <c r="A5">
-        <v>35</v>
-      </c>
-      <c r="B5">
-        <v>30</v>
-      </c>
-      <c r="C5">
-        <v>12</v>
-      </c>
-      <c r="D5">
-        <v>31</v>
-      </c>
-      <c r="E5">
-        <v>53</v>
-      </c>
-      <c r="F5">
-        <v>10</v>
-      </c>
-      <c r="G5">
-        <v>8</v>
-      </c>
-      <c r="H5">
-        <v>20</v>
-      </c>
-      <c r="I5">
-        <v>30</v>
-      </c>
-      <c r="J5">
-        <v>40</v>
-      </c>
-      <c r="K5">
-        <v>25</v>
-      </c>
-      <c r="L5">
-        <v>9</v>
-      </c>
-      <c r="M5">
-        <v>15</v>
-      </c>
-      <c r="N5">
-        <v>10</v>
-      </c>
-      <c r="O5">
-        <v>30</v>
-      </c>
-      <c r="P5">
-        <v>9</v>
-      </c>
-      <c r="Q5">
-        <v>3</v>
-      </c>
-      <c r="R5">
-        <v>30</v>
-      </c>
-      <c r="S5">
-        <v>12</v>
-      </c>
-      <c r="T5">
-        <v>8</v>
-      </c>
-      <c r="U5">
-        <v>50</v>
-      </c>
-      <c r="V5">
-        <v>10</v>
-      </c>
-      <c r="W5">
-        <v>20</v>
-      </c>
-      <c r="X5">
-        <v>15</v>
-      </c>
-      <c r="Y5">
-        <v>30</v>
-      </c>
-      <c r="Z5">
-        <v>13</v>
-      </c>
-      <c r="AA5">
-        <v>5</v>
-      </c>
-      <c r="AB5">
-        <v>15</v>
-      </c>
-      <c r="AC5">
-        <v>10</v>
-      </c>
-      <c r="AD5">
-        <v>25</v>
-      </c>
-      <c r="AE5">
-        <v>25</v>
-      </c>
-      <c r="AF5">
-        <v>30</v>
-      </c>
-      <c r="AG5">
-        <v>5</v>
-      </c>
-      <c r="AH5">
-        <v>30</v>
-      </c>
-      <c r="AI5">
-        <v>15</v>
-      </c>
-      <c r="AJ5">
-        <v>15</v>
-      </c>
-      <c r="AK5">
-        <v>9</v>
-      </c>
-      <c r="AL5">
-        <v>5</v>
-      </c>
-      <c r="AM5">
-        <v>10</v>
-      </c>
-      <c r="AN5">
-        <v>8</v>
-      </c>
-      <c r="AO5">
-        <v>9</v>
-      </c>
-      <c r="AP5">
-        <v>13</v>
-      </c>
-      <c r="AQ5">
-        <v>15</v>
-      </c>
-      <c r="AR5">
-        <v>12</v>
-      </c>
-      <c r="AS5">
-        <v>20</v>
-      </c>
-      <c r="AT5">
-        <v>8</v>
-      </c>
-      <c r="AU5">
-        <v>5</v>
-      </c>
-      <c r="AV5">
-        <v>20</v>
-      </c>
-      <c r="AW5">
-        <v>25</v>
-      </c>
-      <c r="AX5">
-        <v>15</v>
-      </c>
-      <c r="AY5">
-        <v>10</v>
-      </c>
-      <c r="AZ5">
-        <v>20</v>
-      </c>
-      <c r="BA5">
-        <v>8</v>
-      </c>
-      <c r="BB5">
-        <v>20</v>
-      </c>
-      <c r="BC5">
-        <v>10</v>
-      </c>
-      <c r="BD5">
-        <v>20</v>
-      </c>
-      <c r="BE5">
-        <v>8</v>
-      </c>
-      <c r="BF5">
-        <v>8</v>
-      </c>
-      <c r="BG5">
-        <v>10</v>
-      </c>
-      <c r="BH5">
-        <v>10</v>
-      </c>
-      <c r="BI5">
-        <v>10</v>
-      </c>
-      <c r="BJ5">
-        <v>5</v>
-      </c>
-      <c r="BK5">
-        <v>4</v>
-      </c>
-      <c r="BL5">
-        <v>6</v>
-      </c>
-      <c r="BM5">
-        <v>10</v>
-      </c>
-      <c r="BN5">
-        <v>21</v>
-      </c>
-      <c r="BO5">
-        <v>8</v>
-      </c>
-      <c r="BP5">
-        <v>8</v>
-      </c>
-      <c r="BQ5">
-        <v>6</v>
-      </c>
-      <c r="BR5">
-        <v>10</v>
-      </c>
-      <c r="BS5">
-        <v>20</v>
-      </c>
-      <c r="BT5">
-        <v>50</v>
-      </c>
-      <c r="BU5">
-        <v>9</v>
-      </c>
-      <c r="BV5">
-        <v>20</v>
-      </c>
-      <c r="BW5">
-        <v>15</v>
-      </c>
-      <c r="BX5">
-        <v>25</v>
-      </c>
-      <c r="BY5">
-        <v>30</v>
-      </c>
-      <c r="BZ5">
-        <v>40</v>
-      </c>
-      <c r="CA5">
-        <v>25</v>
-      </c>
-      <c r="CB5">
-        <v>15</v>
-      </c>
-      <c r="CC5">
-        <v>20</v>
-      </c>
-      <c r="CD5">
-        <v>35</v>
-      </c>
-      <c r="CE5">
-        <v>10</v>
-      </c>
-      <c r="CF5">
-        <v>12</v>
-      </c>
-      <c r="CG5">
-        <v>15</v>
-      </c>
-      <c r="CH5">
-        <v>20</v>
-      </c>
-      <c r="CI5">
-        <v>13</v>
-      </c>
-      <c r="CJ5">
-        <v>30</v>
-      </c>
-      <c r="CK5">
-        <v>8</v>
-      </c>
-      <c r="CL5">
-        <v>12</v>
-      </c>
-      <c r="CM5">
-        <v>10</v>
-      </c>
-      <c r="CN5">
-        <v>15</v>
-      </c>
-      <c r="CO5">
-        <v>8</v>
-      </c>
-      <c r="CP5">
-        <v>6</v>
-      </c>
-      <c r="CQ5">
-        <v>8</v>
-      </c>
-      <c r="CR5">
-        <v>10</v>
-      </c>
-      <c r="CS5">
-        <v>15</v>
-      </c>
-      <c r="CT5">
-        <v>20</v>
-      </c>
-      <c r="CU5">
-        <v>6</v>
-      </c>
-      <c r="CV5">
-        <v>8</v>
-      </c>
-      <c r="CW5">
-        <v>4</v>
-      </c>
-      <c r="CX5">
-        <v>6</v>
-      </c>
-      <c r="CY5">
-        <v>7</v>
-      </c>
-      <c r="CZ5">
-        <v>3</v>
-      </c>
-      <c r="DA5">
-        <v>8</v>
-      </c>
-      <c r="DB5">
-        <v>4</v>
-      </c>
-      <c r="DC5">
-        <v>5</v>
-      </c>
-      <c r="DD5">
-        <v>6</v>
-      </c>
-      <c r="DE5">
-        <v>5</v>
-      </c>
-      <c r="DF5">
-        <v>5</v>
-      </c>
-      <c r="DG5">
-        <v>7</v>
-      </c>
-      <c r="DH5">
-        <v>8</v>
-      </c>
-      <c r="DI5">
-        <v>6</v>
-      </c>
-      <c r="DJ5">
-        <v>7</v>
-      </c>
-      <c r="DK5">
-        <v>5</v>
-      </c>
-      <c r="DL5">
-        <v>7</v>
-      </c>
-      <c r="DM5">
-        <v>9</v>
-      </c>
-      <c r="DN5">
-        <v>5</v>
-      </c>
-      <c r="DO5">
-        <v>5</v>
-      </c>
-      <c r="DP5">
-        <v>8</v>
-      </c>
-      <c r="DQ5">
-        <v>6</v>
-      </c>
-      <c r="DR5">
-        <v>7</v>
-      </c>
-      <c r="DS5">
-        <v>4</v>
-      </c>
-      <c r="DT5">
-        <v>8</v>
-      </c>
-      <c r="DU5">
-        <v>5</v>
-      </c>
-      <c r="DV5">
-        <v>5</v>
-      </c>
-      <c r="DW5">
-        <v>5</v>
-      </c>
-      <c r="DX5">
-        <v>8</v>
-      </c>
-      <c r="DY5">
-        <v>9</v>
-      </c>
-      <c r="DZ5">
-        <v>5</v>
-      </c>
-      <c r="EA5">
-        <v>5</v>
-      </c>
-      <c r="EB5">
-        <v>7</v>
-      </c>
-      <c r="EC5">
-        <v>8</v>
-      </c>
-      <c r="ED5">
-        <v>9</v>
-      </c>
-      <c r="EE5">
-        <v>4</v>
-      </c>
-      <c r="EF5">
-        <v>4</v>
-      </c>
-      <c r="EG5">
-        <v>5</v>
-      </c>
-      <c r="EH5">
-        <v>6</v>
-      </c>
-      <c r="EI5">
-        <v>4</v>
-      </c>
-      <c r="EJ5">
-        <v>5</v>
-      </c>
-      <c r="EK5">
-        <v>4</v>
-      </c>
-      <c r="EL5">
-        <v>4</v>
-      </c>
-      <c r="EM5">
-        <v>4</v>
-      </c>
-      <c r="EN5">
-        <v>3</v>
-      </c>
-      <c r="EO5">
-        <v>8</v>
-      </c>
-      <c r="EP5">
-        <v>7</v>
-      </c>
-      <c r="EQ5">
-        <v>3</v>
-      </c>
-      <c r="ER5">
-        <v>2</v>
-      </c>
-      <c r="ES5">
-        <v>8</v>
-      </c>
-      <c r="ET5">
-        <v>9</v>
-      </c>
-      <c r="EU5">
-        <v>2</v>
-      </c>
-      <c r="EV5">
-        <v>8</v>
-      </c>
-      <c r="EW5">
-        <v>4</v>
-      </c>
-      <c r="EX5">
-        <v>4</v>
-      </c>
-      <c r="EY5">
-        <v>8</v>
-      </c>
-      <c r="EZ5">
-        <v>9</v>
-      </c>
-      <c r="FA5">
-        <v>9</v>
-      </c>
-      <c r="FB5">
-        <v>2</v>
-      </c>
-      <c r="FC5">
-        <v>2</v>
-      </c>
-      <c r="FD5">
-        <v>4</v>
-      </c>
-      <c r="FE5">
-        <v>1</v>
-      </c>
-      <c r="FF5">
-        <v>8</v>
-      </c>
-      <c r="FG5">
-        <v>2</v>
-      </c>
-      <c r="FH5">
-        <v>2</v>
-      </c>
-      <c r="FI5">
-        <v>5</v>
-      </c>
-      <c r="FJ5">
-        <v>5</v>
-      </c>
-      <c r="FK5">
-        <v>5</v>
-      </c>
-      <c r="FL5">
-        <v>8</v>
-      </c>
-      <c r="FM5">
-        <v>8</v>
-      </c>
-      <c r="FN5">
-        <v>4</v>
-      </c>
-      <c r="FO5">
-        <v>3</v>
-      </c>
-      <c r="FP5">
-        <v>4</v>
-      </c>
-      <c r="FQ5">
-        <v>6</v>
-      </c>
-      <c r="FR5">
-        <v>5</v>
-      </c>
-      <c r="FS5">
-        <v>1</v>
-      </c>
-      <c r="FT5">
-        <v>5</v>
-      </c>
-      <c r="FU5">
-        <v>2</v>
-      </c>
-      <c r="FV5">
-        <v>2</v>
-      </c>
-      <c r="FW5">
-        <v>9</v>
-      </c>
-      <c r="FX5">
-        <v>9</v>
-      </c>
-      <c r="FY5">
-        <v>6</v>
-      </c>
-      <c r="FZ5">
-        <v>1</v>
-      </c>
-      <c r="GA5">
-        <v>8</v>
-      </c>
-      <c r="GB5">
-        <v>8</v>
-      </c>
-      <c r="GC5">
-        <v>2</v>
-      </c>
-      <c r="GD5">
-        <v>5</v>
-      </c>
-      <c r="GE5">
-        <v>3</v>
-      </c>
-      <c r="GF5">
-        <v>8</v>
-      </c>
-      <c r="GG5">
-        <v>1</v>
-      </c>
-      <c r="GH5">
-        <v>3</v>
-      </c>
-      <c r="GI5">
-        <v>2</v>
-      </c>
-      <c r="GJ5">
-        <v>9</v>
-      </c>
-      <c r="GK5">
-        <v>5</v>
-      </c>
-      <c r="GL5">
-        <v>2</v>
-      </c>
-      <c r="GM5">
-        <v>4</v>
-      </c>
-      <c r="GN5">
-        <v>7</v>
-      </c>
-      <c r="GO5">
-        <v>6</v>
-      </c>
-      <c r="GP5">
-        <v>2</v>
-      </c>
-      <c r="GQ5">
-        <v>4</v>
-      </c>
-      <c r="GR5">
-        <v>7</v>
-      </c>
-      <c r="GS5">
+      <c r="E202" s="15">
+        <v>1</v>
+      </c>
+      <c r="F202" s="15">
         <v>6</v>
       </c>
     </row>
